--- a/automação de cadastro/variantes.xlsx
+++ b/automação de cadastro/variantes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:K328"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,25 +442,34 @@
         <v/>
       </c>
       <c r="B2" t="str">
-        <v>Referência (código fornecedor)</v>
+        <v>00000000004744</v>
       </c>
       <c r="C2" t="str">
-        <v>Referência (código fornecedor)1</v>
+        <v>000000000047441</v>
       </c>
       <c r="D2" t="str">
         <v>tamanho</v>
       </c>
+      <c r="E2" t="str">
+        <v>100 UNIDADES</v>
+      </c>
       <c r="F2" t="str">
-        <v>Preço de venda em reais</v>
+        <v>3.68</v>
+      </c>
+      <c r="G2" t="str">
+        <v>LISO</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2.5" - 6cm</v>
       </c>
       <c r="I2" t="str">
-        <v>Nome da categoria - nível 2</v>
+        <v>Sortido</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2" t="str">
-        <v>Código EAN/GTIN/UPC</v>
+        <v>07896968303337</v>
       </c>
     </row>
     <row r="3">
@@ -468,34 +477,34 @@
         <v/>
       </c>
       <c r="B3" t="str">
-        <v>00000000004744</v>
+        <v>00000000002162</v>
       </c>
       <c r="C3" t="str">
-        <v>000000000047441</v>
+        <v>000000000035401</v>
       </c>
       <c r="D3" t="str">
         <v>tamanho</v>
       </c>
       <c r="E3" t="str">
-        <v>100 UNIDADES</v>
+        <v>50 UNIDADES</v>
       </c>
       <c r="F3" t="str">
-        <v>3.68</v>
+        <v>7.49</v>
       </c>
       <c r="G3" t="str">
         <v>LISO</v>
       </c>
       <c r="H3" t="str">
-        <v>2.5" - 6cm</v>
+        <v>5" - 13cm</v>
       </c>
       <c r="I3" t="str">
-        <v>Sortido</v>
+        <v>Amarelo</v>
       </c>
       <c r="J3">
         <v>10</v>
       </c>
       <c r="K3" t="str">
-        <v>07896968303337</v>
+        <v>07896968301340</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +512,10 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>00000000002162</v>
+        <v>00000000002163</v>
       </c>
       <c r="C4" t="str">
-        <v>000000000035401</v>
+        <v>000000000035411</v>
       </c>
       <c r="D4" t="str">
         <v>tamanho</v>
@@ -524,13 +533,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I4" t="str">
-        <v>Amarelo</v>
+        <v>Azul Claro</v>
       </c>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4" t="str">
-        <v>07896968301340</v>
+        <v>07896968301357</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +547,10 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>00000000002163</v>
+        <v>00000000002783</v>
       </c>
       <c r="C5" t="str">
-        <v>000000000035411</v>
+        <v>000000000035421</v>
       </c>
       <c r="D5" t="str">
         <v>tamanho</v>
@@ -559,13 +568,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I5" t="str">
-        <v>Azul Claro</v>
+        <v>AZUL ROYAL</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" t="str">
-        <v>07896968301357</v>
+        <v>07896968301364</v>
       </c>
     </row>
     <row r="6">
@@ -573,10 +582,10 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <v>00000000002783</v>
+        <v>00000000002165</v>
       </c>
       <c r="C6" t="str">
-        <v>000000000035421</v>
+        <v>000000000035431</v>
       </c>
       <c r="D6" t="str">
         <v>tamanho</v>
@@ -594,13 +603,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I6" t="str">
-        <v>AZUL ROYAL</v>
+        <v>Branco</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6" t="str">
-        <v>07896968301364</v>
+        <v>07896968301371</v>
       </c>
     </row>
     <row r="7">
@@ -608,10 +617,10 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>00000000002165</v>
+        <v>00000000002166</v>
       </c>
       <c r="C7" t="str">
-        <v>000000000035431</v>
+        <v>000000000035441</v>
       </c>
       <c r="D7" t="str">
         <v>tamanho</v>
@@ -629,13 +638,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I7" t="str">
-        <v>Branco</v>
+        <v>Laranja</v>
       </c>
       <c r="J7">
         <v>10</v>
       </c>
       <c r="K7" t="str">
-        <v>07896968301371</v>
+        <v>07896968301395</v>
       </c>
     </row>
     <row r="8">
@@ -643,10 +652,10 @@
         <v/>
       </c>
       <c r="B8" t="str">
-        <v>00000000002166</v>
+        <v>00000000002167</v>
       </c>
       <c r="C8" t="str">
-        <v>000000000035441</v>
+        <v>000000000035451</v>
       </c>
       <c r="D8" t="str">
         <v>tamanho</v>
@@ -664,13 +673,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I8" t="str">
-        <v>Laranja</v>
+        <v>Lilás</v>
       </c>
       <c r="J8">
         <v>10</v>
       </c>
       <c r="K8" t="str">
-        <v>07896968301395</v>
+        <v>07896968301401</v>
       </c>
     </row>
     <row r="9">
@@ -678,10 +687,10 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>00000000002167</v>
+        <v>00000000002168</v>
       </c>
       <c r="C9" t="str">
-        <v>000000000035451</v>
+        <v>000000000035461</v>
       </c>
       <c r="D9" t="str">
         <v>tamanho</v>
@@ -699,13 +708,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I9" t="str">
-        <v>Lilás</v>
+        <v>Pink</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c r="K9" t="str">
-        <v>07896968301401</v>
+        <v>07896968300954</v>
       </c>
     </row>
     <row r="10">
@@ -713,10 +722,10 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>00000000002168</v>
+        <v>00000000002169</v>
       </c>
       <c r="C10" t="str">
-        <v>000000000035461</v>
+        <v>000000000035471</v>
       </c>
       <c r="D10" t="str">
         <v>tamanho</v>
@@ -734,13 +743,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I10" t="str">
-        <v>Pink</v>
+        <v>Preto</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10" t="str">
-        <v>07896968300954</v>
+        <v>07896968301425</v>
       </c>
     </row>
     <row r="11">
@@ -748,10 +757,10 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>00000000002169</v>
+        <v>00000000002170</v>
       </c>
       <c r="C11" t="str">
-        <v>000000000035471</v>
+        <v>000000000035641</v>
       </c>
       <c r="D11" t="str">
         <v>tamanho</v>
@@ -769,13 +778,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I11" t="str">
-        <v>Preto</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="str">
-        <v>07896968301425</v>
+        <v>07896968301432</v>
       </c>
     </row>
     <row r="12">
@@ -783,10 +792,10 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v>00000000002170</v>
+        <v>00000000002173</v>
       </c>
       <c r="C12" t="str">
-        <v>000000000035641</v>
+        <v>000000000035661</v>
       </c>
       <c r="D12" t="str">
         <v>tamanho</v>
@@ -804,13 +813,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I12" t="str">
-        <v>Rosa Baby</v>
+        <v>Vermelho</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12" t="str">
-        <v>07896968301432</v>
+        <v>07896968301487</v>
       </c>
     </row>
     <row r="13">
@@ -818,10 +827,10 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>00000000002173</v>
+        <v>00000000002174</v>
       </c>
       <c r="C13" t="str">
-        <v>000000000035661</v>
+        <v>000000000035671</v>
       </c>
       <c r="D13" t="str">
         <v>tamanho</v>
@@ -839,13 +848,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I13" t="str">
-        <v>Vermelho</v>
+        <v>Marrom</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13" t="str">
-        <v>07896968301487</v>
+        <v>07896968301418</v>
       </c>
     </row>
     <row r="14">
@@ -853,10 +862,10 @@
         <v/>
       </c>
       <c r="B14" t="str">
-        <v>00000000002174</v>
+        <v>00000000002176</v>
       </c>
       <c r="C14" t="str">
-        <v>000000000035671</v>
+        <v>000000000035681</v>
       </c>
       <c r="D14" t="str">
         <v>tamanho</v>
@@ -874,13 +883,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I14" t="str">
-        <v>Marrom</v>
+        <v>Verde LimAO</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" t="str">
-        <v>07896968301418</v>
+        <v>07896968301524</v>
       </c>
     </row>
     <row r="15">
@@ -888,10 +897,10 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>00000000002176</v>
+        <v>00000000002177</v>
       </c>
       <c r="C15" t="str">
-        <v>000000000035681</v>
+        <v>000000000035691</v>
       </c>
       <c r="D15" t="str">
         <v>tamanho</v>
@@ -909,13 +918,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I15" t="str">
-        <v>Verde LimAO</v>
+        <v>Violeta</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15" t="str">
-        <v>07896968301524</v>
+        <v>07896968301531</v>
       </c>
     </row>
     <row r="16">
@@ -923,10 +932,10 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>00000000002177</v>
+        <v>00000000003570</v>
       </c>
       <c r="C16" t="str">
-        <v>000000000035691</v>
+        <v>000000000035701</v>
       </c>
       <c r="D16" t="str">
         <v>tamanho</v>
@@ -938,19 +947,19 @@
         <v>7.49</v>
       </c>
       <c r="G16" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H16" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I16" t="str">
-        <v>Violeta</v>
+        <v>Sortido</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="K16" t="str">
-        <v>07896968301531</v>
+        <v>07896968314081</v>
       </c>
     </row>
     <row r="17">
@@ -958,10 +967,10 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>00000000002178</v>
+        <v>00000000004093</v>
       </c>
       <c r="C17" t="str">
-        <v>000000000035701</v>
+        <v>000000000040931</v>
       </c>
       <c r="D17" t="str">
         <v>tamanho</v>
@@ -970,7 +979,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F17" t="str">
-        <v>7.49</v>
+        <v>7.10</v>
       </c>
       <c r="G17" t="str">
         <v>LISO</v>
@@ -979,13 +988,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I17" t="str">
-        <v>Sortido</v>
+        <v>CARAMELO</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17" t="str">
-        <v>07896968314081</v>
+        <v>07896968316498</v>
       </c>
     </row>
     <row r="18">
@@ -993,10 +1002,10 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <v>00000000004093</v>
+        <v>00000000004094</v>
       </c>
       <c r="C18" t="str">
-        <v>000000000040931</v>
+        <v>000000000040941</v>
       </c>
       <c r="D18" t="str">
         <v>tamanho</v>
@@ -1005,7 +1014,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F18" t="str">
-        <v>7.10</v>
+        <v>7.49</v>
       </c>
       <c r="G18" t="str">
         <v>LISO</v>
@@ -1014,13 +1023,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I18" t="str">
-        <v>CARAMELO</v>
+        <v>VERDE MILITAR</v>
       </c>
       <c r="J18">
         <v>10</v>
       </c>
       <c r="K18" t="str">
-        <v>07896968316498</v>
+        <v>07896968316535</v>
       </c>
     </row>
     <row r="19">
@@ -1028,10 +1037,10 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>00000000004094</v>
+        <v>00000000004095</v>
       </c>
       <c r="C19" t="str">
-        <v>000000000040941</v>
+        <v>000000000040951</v>
       </c>
       <c r="D19" t="str">
         <v>tamanho</v>
@@ -1049,13 +1058,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I19" t="str">
-        <v>VERDE MILITAR</v>
+        <v>VERDE oliva</v>
       </c>
       <c r="J19">
         <v>10</v>
       </c>
       <c r="K19" t="str">
-        <v>07896968316535</v>
+        <v>07896968316559</v>
       </c>
     </row>
     <row r="20">
@@ -1063,10 +1072,10 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>00000000004095</v>
+        <v>00000000004096</v>
       </c>
       <c r="C20" t="str">
-        <v>000000000040951</v>
+        <v>000000000040961</v>
       </c>
       <c r="D20" t="str">
         <v>tamanho</v>
@@ -1075,7 +1084,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F20" t="str">
-        <v>7.49</v>
+        <v>7.10</v>
       </c>
       <c r="G20" t="str">
         <v>LISO</v>
@@ -1084,13 +1093,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I20" t="str">
-        <v>VERDE oliva</v>
+        <v>VERMELHO RUBI</v>
       </c>
       <c r="J20">
         <v>10</v>
       </c>
       <c r="K20" t="str">
-        <v>07896968316559</v>
+        <v>07896968316573</v>
       </c>
     </row>
     <row r="21">
@@ -1098,10 +1107,10 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>00000000004096</v>
+        <v>00000000004097</v>
       </c>
       <c r="C21" t="str">
-        <v>000000000040961</v>
+        <v>000000000040971</v>
       </c>
       <c r="D21" t="str">
         <v>tamanho</v>
@@ -1119,13 +1128,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I21" t="str">
-        <v>VERMELHO RUBI</v>
+        <v>VINHO TINTO</v>
       </c>
       <c r="J21">
         <v>10</v>
       </c>
       <c r="K21" t="str">
-        <v>07896968316573</v>
+        <v>07896968316610</v>
       </c>
     </row>
     <row r="22">
@@ -1133,10 +1142,10 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>00000000004097</v>
+        <v>00000000003043</v>
       </c>
       <c r="C22" t="str">
-        <v>000000000040971</v>
+        <v>000000000041041</v>
       </c>
       <c r="D22" t="str">
         <v>tamanho</v>
@@ -1145,22 +1154,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F22" t="str">
-        <v>7.10</v>
+        <v>7.99</v>
       </c>
       <c r="G22" t="str">
-        <v>LISO</v>
+        <v>NEON</v>
       </c>
       <c r="H22" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I22" t="str">
-        <v>VINHO TINTO</v>
+        <v>Sortido</v>
       </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22" t="str">
-        <v>07896968316610</v>
+        <v>07896968301036</v>
       </c>
     </row>
     <row r="23">
@@ -1168,34 +1177,34 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>00000000003043</v>
+        <v>00000000003579</v>
       </c>
       <c r="C23" t="str">
-        <v>000000000041041</v>
+        <v>000000000041071</v>
       </c>
       <c r="D23" t="str">
         <v>tamanho</v>
       </c>
       <c r="E23" t="str">
-        <v>50 UNIDADES</v>
+        <v>25 UNIDADES</v>
       </c>
       <c r="F23" t="str">
-        <v>7.99</v>
+        <v>6.49</v>
       </c>
       <c r="G23" t="str">
-        <v>NEON</v>
+        <v>PLATINO</v>
       </c>
       <c r="H23" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I23" t="str">
-        <v>Sortido</v>
+        <v>Azul</v>
       </c>
       <c r="J23">
         <v>10</v>
       </c>
       <c r="K23" t="str">
-        <v>07896968301036</v>
+        <v>07896968313787</v>
       </c>
     </row>
     <row r="24">
@@ -1203,10 +1212,10 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>00000000003579</v>
+        <v>00000000002183</v>
       </c>
       <c r="C24" t="str">
-        <v>000000000041071</v>
+        <v>000000000041081</v>
       </c>
       <c r="D24" t="str">
         <v>tamanho</v>
@@ -1224,13 +1233,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I24" t="str">
-        <v>Azul</v>
+        <v>Ouro</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="str">
-        <v>07896968313787</v>
+        <v>07896968313794</v>
       </c>
     </row>
     <row r="25">
@@ -1238,10 +1247,10 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>00000000002183</v>
+        <v>00000000002184</v>
       </c>
       <c r="C25" t="str">
-        <v>000000000041081</v>
+        <v>000000000041091</v>
       </c>
       <c r="D25" t="str">
         <v>tamanho</v>
@@ -1259,13 +1268,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I25" t="str">
-        <v>Ouro</v>
+        <v>Prata</v>
       </c>
       <c r="J25">
         <v>10</v>
       </c>
       <c r="K25" t="str">
-        <v>07896968313794</v>
+        <v>07896968313800</v>
       </c>
     </row>
     <row r="26">
@@ -1273,10 +1282,10 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>00000000002184</v>
+        <v>00000000003580</v>
       </c>
       <c r="C26" t="str">
-        <v>000000000041091</v>
+        <v>000000000041101</v>
       </c>
       <c r="D26" t="str">
         <v>tamanho</v>
@@ -1294,13 +1303,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I26" t="str">
-        <v>Prata</v>
+        <v>ROSA</v>
       </c>
       <c r="J26">
         <v>10</v>
       </c>
       <c r="K26" t="str">
-        <v>07896968313800</v>
+        <v>07896968313817</v>
       </c>
     </row>
     <row r="27">
@@ -1308,10 +1317,10 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>00000000003580</v>
+        <v>00000000003582</v>
       </c>
       <c r="C27" t="str">
-        <v>000000000041101</v>
+        <v>000000000041111</v>
       </c>
       <c r="D27" t="str">
         <v>tamanho</v>
@@ -1329,13 +1338,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I27" t="str">
-        <v>ROSA</v>
+        <v>Vermelho</v>
       </c>
       <c r="J27">
         <v>10</v>
       </c>
       <c r="K27" t="str">
-        <v>07896968313817</v>
+        <v>07896968314395</v>
       </c>
     </row>
     <row r="28">
@@ -1343,10 +1352,10 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>00000000003582</v>
+        <v>00000000003583</v>
       </c>
       <c r="C28" t="str">
-        <v>000000000041111</v>
+        <v>000000000041121</v>
       </c>
       <c r="D28" t="str">
         <v>tamanho</v>
@@ -1364,13 +1373,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I28" t="str">
-        <v>Vermelho</v>
+        <v>Violeta</v>
       </c>
       <c r="J28">
         <v>10</v>
       </c>
       <c r="K28" t="str">
-        <v>07896968314395</v>
+        <v>07896968313831</v>
       </c>
     </row>
     <row r="29">
@@ -1378,10 +1387,10 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>00000000003583</v>
+        <v>00000000004113</v>
       </c>
       <c r="C29" t="str">
-        <v>000000000041121</v>
+        <v>000000000041131</v>
       </c>
       <c r="D29" t="str">
         <v>tamanho</v>
@@ -1390,7 +1399,7 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F29" t="str">
-        <v>6.49</v>
+        <v>6.58</v>
       </c>
       <c r="G29" t="str">
         <v>PLATINO</v>
@@ -1399,13 +1408,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I29" t="str">
-        <v>Violeta</v>
+        <v>OURO VELHO</v>
       </c>
       <c r="J29">
         <v>10</v>
       </c>
       <c r="K29" t="str">
-        <v>07896968313831</v>
+        <v>07896968317020</v>
       </c>
     </row>
     <row r="30">
@@ -1413,10 +1422,10 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>00000000004113</v>
+        <v>00000000003581</v>
       </c>
       <c r="C30" t="str">
-        <v>000000000041131</v>
+        <v>000000000041141</v>
       </c>
       <c r="D30" t="str">
         <v>tamanho</v>
@@ -1425,7 +1434,7 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F30" t="str">
-        <v>6.58</v>
+        <v>6.49</v>
       </c>
       <c r="G30" t="str">
         <v>PLATINO</v>
@@ -1434,13 +1443,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I30" t="str">
-        <v>OURO VELHO</v>
+        <v>Verde</v>
       </c>
       <c r="J30">
         <v>10</v>
       </c>
       <c r="K30" t="str">
-        <v>07896968317020</v>
+        <v>07896968313824</v>
       </c>
     </row>
     <row r="31">
@@ -1448,10 +1457,10 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>00000000003581</v>
+        <v>00000000004115</v>
       </c>
       <c r="C31" t="str">
-        <v>000000000041141</v>
+        <v>000000000041151</v>
       </c>
       <c r="D31" t="str">
         <v>tamanho</v>
@@ -1469,13 +1478,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I31" t="str">
-        <v>Verde</v>
+        <v>CHUMBO</v>
       </c>
       <c r="J31">
         <v>10</v>
       </c>
       <c r="K31" t="str">
-        <v>07896968313824</v>
+        <v>07896968316634</v>
       </c>
     </row>
     <row r="32">
@@ -1483,10 +1492,10 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <v>00000000004115</v>
+        <v>00000000004116</v>
       </c>
       <c r="C32" t="str">
-        <v>000000000041151</v>
+        <v>000000000041161</v>
       </c>
       <c r="D32" t="str">
         <v>tamanho</v>
@@ -1495,7 +1504,7 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F32" t="str">
-        <v>6.49</v>
+        <v>6.58</v>
       </c>
       <c r="G32" t="str">
         <v>PLATINO</v>
@@ -1504,13 +1513,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I32" t="str">
-        <v>CHUMBO</v>
+        <v>BRONZE</v>
       </c>
       <c r="J32">
         <v>10</v>
       </c>
       <c r="K32" t="str">
-        <v>07896968316634</v>
+        <v>07896968316665</v>
       </c>
     </row>
     <row r="33">
@@ -1518,10 +1527,10 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>00000000004116</v>
+        <v>00000000002825</v>
       </c>
       <c r="C33" t="str">
-        <v>000000000041161</v>
+        <v>000000000041171</v>
       </c>
       <c r="D33" t="str">
         <v>tamanho</v>
@@ -1530,7 +1539,7 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F33" t="str">
-        <v>6.58</v>
+        <v>6.49</v>
       </c>
       <c r="G33" t="str">
         <v>PLATINO</v>
@@ -1539,13 +1548,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I33" t="str">
-        <v>BRONZE</v>
+        <v>ROSE GOLD</v>
       </c>
       <c r="J33">
         <v>10</v>
       </c>
       <c r="K33" t="str">
-        <v>07896968316665</v>
+        <v>07896968314777</v>
       </c>
     </row>
     <row r="34">
@@ -1553,10 +1562,10 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>00000000002825</v>
+        <v>00000000002185</v>
       </c>
       <c r="C34" t="str">
-        <v>000000000041171</v>
+        <v>000000000041181</v>
       </c>
       <c r="D34" t="str">
         <v>tamanho</v>
@@ -1574,13 +1583,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I34" t="str">
-        <v>ROSE GOLD</v>
+        <v>Sortido</v>
       </c>
       <c r="J34">
         <v>10</v>
       </c>
       <c r="K34" t="str">
-        <v>07896968314777</v>
+        <v>07896968314517</v>
       </c>
     </row>
     <row r="35">
@@ -1588,34 +1597,34 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>00000000002185</v>
+        <v>00000000002164</v>
       </c>
       <c r="C35" t="str">
-        <v>000000000041181</v>
+        <v>000000000047451</v>
       </c>
       <c r="D35" t="str">
         <v>tamanho</v>
       </c>
       <c r="E35" t="str">
-        <v>25 UNIDADES</v>
+        <v>50 UNIDADES</v>
       </c>
       <c r="F35" t="str">
-        <v>6.49</v>
+        <v>7.49</v>
       </c>
       <c r="G35" t="str">
-        <v>PLATINO</v>
+        <v>LISO</v>
       </c>
       <c r="H35" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I35" t="str">
-        <v>Sortido</v>
+        <v>Azul Escuro</v>
       </c>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35" t="str">
-        <v>07896968314517</v>
+        <v>07896968316122</v>
       </c>
     </row>
     <row r="36">
@@ -1623,10 +1632,10 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>00000000002164</v>
+        <v>00000000004746</v>
       </c>
       <c r="C36" t="str">
-        <v>000000000047451</v>
+        <v>000000000047461</v>
       </c>
       <c r="D36" t="str">
         <v>tamanho</v>
@@ -1644,13 +1653,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I36" t="str">
-        <v>Azul Escuro</v>
+        <v>Azul Turquesa</v>
       </c>
       <c r="J36">
         <v>10</v>
       </c>
       <c r="K36" t="str">
-        <v>07896968316122</v>
+        <v>07896968315910</v>
       </c>
     </row>
     <row r="37">
@@ -1658,10 +1667,10 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>00000000004746</v>
+        <v>00000000002175</v>
       </c>
       <c r="C37" t="str">
-        <v>000000000047461</v>
+        <v>000000000047471</v>
       </c>
       <c r="D37" t="str">
         <v>tamanho</v>
@@ -1679,13 +1688,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I37" t="str">
-        <v>Azul Turquesa</v>
+        <v>Rosa Forte</v>
       </c>
       <c r="J37">
         <v>10</v>
       </c>
       <c r="K37" t="str">
-        <v>07896968315910</v>
+        <v>07896968301449</v>
       </c>
     </row>
     <row r="38">
@@ -1693,10 +1702,10 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>00000000002175</v>
+        <v>00000000003704</v>
       </c>
       <c r="C38" t="str">
-        <v>000000000047471</v>
+        <v>000000000047481</v>
       </c>
       <c r="D38" t="str">
         <v>tamanho</v>
@@ -1714,13 +1723,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I38" t="str">
-        <v>Rosa Forte</v>
+        <v>CLEAR</v>
       </c>
       <c r="J38">
         <v>10</v>
       </c>
       <c r="K38" t="str">
-        <v>07896968301449</v>
+        <v>07896968300305</v>
       </c>
     </row>
     <row r="39">
@@ -1728,10 +1737,10 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>00000000003704</v>
+        <v>00000000004749</v>
       </c>
       <c r="C39" t="str">
-        <v>000000000047481</v>
+        <v>000000000047491</v>
       </c>
       <c r="D39" t="str">
         <v>tamanho</v>
@@ -1749,13 +1758,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I39" t="str">
-        <v>CLEAR</v>
+        <v>Verde Tropical</v>
       </c>
       <c r="J39">
         <v>10</v>
       </c>
       <c r="K39" t="str">
-        <v>07896968300305</v>
+        <v>07896968316849</v>
       </c>
     </row>
     <row r="40">
@@ -1763,10 +1772,10 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v>00000000004749</v>
+        <v>00000000004750</v>
       </c>
       <c r="C40" t="str">
-        <v>000000000047491</v>
+        <v>000000000047501</v>
       </c>
       <c r="D40" t="str">
         <v>tamanho</v>
@@ -1784,13 +1793,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I40" t="str">
-        <v>Verde Tropical</v>
+        <v>Bege</v>
       </c>
       <c r="J40">
         <v>10</v>
       </c>
       <c r="K40" t="str">
-        <v>07896968316849</v>
+        <v>07896968315934</v>
       </c>
     </row>
     <row r="41">
@@ -1798,10 +1807,10 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>00000000004750</v>
+        <v>00000000004753</v>
       </c>
       <c r="C41" t="str">
-        <v>000000000047501</v>
+        <v>000000000047531</v>
       </c>
       <c r="D41" t="str">
         <v>tamanho</v>
@@ -1819,13 +1828,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I41" t="str">
-        <v>Bege</v>
+        <v>Cinza</v>
       </c>
       <c r="J41">
         <v>10</v>
       </c>
       <c r="K41" t="str">
-        <v>07896968315934</v>
+        <v>07896968313862</v>
       </c>
     </row>
     <row r="42">
@@ -1833,10 +1842,10 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>00000000004753</v>
+        <v>00000000004754</v>
       </c>
       <c r="C42" t="str">
-        <v>000000000047531</v>
+        <v>000000000047541</v>
       </c>
       <c r="D42" t="str">
         <v>tamanho</v>
@@ -1845,7 +1854,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F42" t="str">
-        <v>7.49</v>
+        <v>7.10</v>
       </c>
       <c r="G42" t="str">
         <v>LISO</v>
@@ -1854,13 +1863,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I42" t="str">
-        <v>Cinza</v>
+        <v>Coral</v>
       </c>
       <c r="J42">
         <v>10</v>
       </c>
       <c r="K42" t="str">
-        <v>07896968313862</v>
+        <v>07896968314098</v>
       </c>
     </row>
     <row r="43">
@@ -1868,10 +1877,10 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>00000000004754</v>
+        <v>00000000004191</v>
       </c>
       <c r="C43" t="str">
-        <v>000000000047541</v>
+        <v>000000000047551</v>
       </c>
       <c r="D43" t="str">
         <v>tamanho</v>
@@ -1880,7 +1889,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F43" t="str">
-        <v>7.10</v>
+        <v>7.49</v>
       </c>
       <c r="G43" t="str">
         <v>LISO</v>
@@ -1889,13 +1898,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I43" t="str">
-        <v>Coral</v>
+        <v>Verde</v>
       </c>
       <c r="J43">
         <v>10</v>
       </c>
       <c r="K43" t="str">
-        <v>07896968314098</v>
+        <v>07896968316344</v>
       </c>
     </row>
     <row r="44">
@@ -1903,10 +1912,10 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>00000000004191</v>
+        <v>00000000004757</v>
       </c>
       <c r="C44" t="str">
-        <v>000000000047551</v>
+        <v>000000000047571</v>
       </c>
       <c r="D44" t="str">
         <v>tamanho</v>
@@ -1924,13 +1933,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I44" t="str">
-        <v>Verde</v>
+        <v>Marfim</v>
       </c>
       <c r="J44">
         <v>10</v>
       </c>
       <c r="K44" t="str">
-        <v>07896968316344</v>
+        <v>07896968308554</v>
       </c>
     </row>
     <row r="45">
@@ -1938,10 +1947,10 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <v>00000000004757</v>
+        <v>00000000004759</v>
       </c>
       <c r="C45" t="str">
-        <v>000000000047571</v>
+        <v>000000000047591</v>
       </c>
       <c r="D45" t="str">
         <v>tamanho</v>
@@ -1950,7 +1959,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F45" t="str">
-        <v>7.49</v>
+        <v>7.10</v>
       </c>
       <c r="G45" t="str">
         <v>LISO</v>
@@ -1959,13 +1968,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I45" t="str">
-        <v>Marfim</v>
+        <v>Verde Baby</v>
       </c>
       <c r="J45">
         <v>10</v>
       </c>
       <c r="K45" t="str">
-        <v>07896968308554</v>
+        <v>07896968314531</v>
       </c>
     </row>
     <row r="46">
@@ -1973,10 +1982,10 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>00000000004759</v>
+        <v>00000000007703</v>
       </c>
       <c r="C46" t="str">
-        <v>000000000047591</v>
+        <v>000000000077031</v>
       </c>
       <c r="D46" t="str">
         <v>tamanho</v>
@@ -1985,22 +1994,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F46" t="str">
-        <v>7.10</v>
+        <v>7.49</v>
       </c>
       <c r="G46" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H46" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I46" t="str">
-        <v>Verde Baby</v>
+        <v>AMARELO CANDY</v>
       </c>
       <c r="J46">
         <v>10</v>
       </c>
       <c r="K46" t="str">
-        <v>07896968314531</v>
+        <v>07896968317921</v>
       </c>
     </row>
     <row r="47">
@@ -2008,10 +2017,10 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <v>00000000007703</v>
+        <v>00000000007704</v>
       </c>
       <c r="C47" t="str">
-        <v>000000000077031</v>
+        <v>000000000077041</v>
       </c>
       <c r="D47" t="str">
         <v>tamanho</v>
@@ -2023,19 +2032,19 @@
         <v>7.49</v>
       </c>
       <c r="G47" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H47" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I47" t="str">
-        <v>AMARELO CANDY</v>
+        <v>AZUL CANDY</v>
       </c>
       <c r="J47">
         <v>10</v>
       </c>
       <c r="K47" t="str">
-        <v>07896968317921</v>
+        <v>07896968317938</v>
       </c>
     </row>
     <row r="48">
@@ -2043,10 +2052,10 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>00000000007704</v>
+        <v>00000000007705</v>
       </c>
       <c r="C48" t="str">
-        <v>000000000077041</v>
+        <v>000000000077051</v>
       </c>
       <c r="D48" t="str">
         <v>tamanho</v>
@@ -2058,19 +2067,19 @@
         <v>7.49</v>
       </c>
       <c r="G48" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H48" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I48" t="str">
-        <v>AZUL CANDY</v>
+        <v>ROSA CANDY</v>
       </c>
       <c r="J48">
         <v>10</v>
       </c>
       <c r="K48" t="str">
-        <v>07896968317938</v>
+        <v>07896968317952</v>
       </c>
     </row>
     <row r="49">
@@ -2078,10 +2087,10 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>00000000007705</v>
+        <v>00000000007306</v>
       </c>
       <c r="C49" t="str">
-        <v>000000000077051</v>
+        <v>000000000077071</v>
       </c>
       <c r="D49" t="str">
         <v>tamanho</v>
@@ -2093,19 +2102,19 @@
         <v>7.49</v>
       </c>
       <c r="G49" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H49" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I49" t="str">
-        <v>ROSA CANDY</v>
+        <v>verde CANDY</v>
       </c>
       <c r="J49">
         <v>10</v>
       </c>
       <c r="K49" t="str">
-        <v>07896968317952</v>
+        <v>07896968317976</v>
       </c>
     </row>
     <row r="50">
@@ -2113,10 +2122,10 @@
         <v/>
       </c>
       <c r="B50" t="str">
-        <v>00000000007306</v>
+        <v>00000000007708</v>
       </c>
       <c r="C50" t="str">
-        <v>000000000077071</v>
+        <v>000000000077081</v>
       </c>
       <c r="D50" t="str">
         <v>tamanho</v>
@@ -2134,13 +2143,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I50" t="str">
-        <v>verde CANDY</v>
+        <v>AMARELO PAPAYA</v>
       </c>
       <c r="J50">
         <v>10</v>
       </c>
       <c r="K50" t="str">
-        <v>07896968317976</v>
+        <v>07896968318102</v>
       </c>
     </row>
     <row r="51">
@@ -2148,10 +2157,10 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <v>00000000007708</v>
+        <v>00000000007709</v>
       </c>
       <c r="C51" t="str">
-        <v>000000000077081</v>
+        <v>000000000077091</v>
       </c>
       <c r="D51" t="str">
         <v>tamanho</v>
@@ -2169,13 +2178,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I51" t="str">
-        <v>AMARELO PAPAYA</v>
+        <v>AZUL INDIGO</v>
       </c>
       <c r="J51">
         <v>10</v>
       </c>
       <c r="K51" t="str">
-        <v>07896968318102</v>
+        <v>07896968318119</v>
       </c>
     </row>
     <row r="52">
@@ -2183,10 +2192,10 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <v>00000000007709</v>
+        <v>00000000007710</v>
       </c>
       <c r="C52" t="str">
-        <v>000000000077091</v>
+        <v>000000000077101</v>
       </c>
       <c r="D52" t="str">
         <v>tamanho</v>
@@ -2204,13 +2213,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I52" t="str">
-        <v>AZUL INDIGO</v>
+        <v>AZUL PISCINA</v>
       </c>
       <c r="J52">
         <v>10</v>
       </c>
       <c r="K52" t="str">
-        <v>07896968318119</v>
+        <v>07896968318126</v>
       </c>
     </row>
     <row r="53">
@@ -2218,10 +2227,10 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <v>00000000007710</v>
+        <v>00000000007711</v>
       </c>
       <c r="C53" t="str">
-        <v>000000000077101</v>
+        <v>000000000077111</v>
       </c>
       <c r="D53" t="str">
         <v>tamanho</v>
@@ -2239,13 +2248,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I53" t="str">
-        <v>AZUL PISCINA</v>
+        <v>lilas orquidea</v>
       </c>
       <c r="J53">
         <v>10</v>
       </c>
       <c r="K53" t="str">
-        <v>07896968318126</v>
+        <v>07896968318133</v>
       </c>
     </row>
     <row r="54">
@@ -2253,10 +2262,10 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <v>00000000007711</v>
+        <v>00000000007712</v>
       </c>
       <c r="C54" t="str">
-        <v>000000000077111</v>
+        <v>000000000077121</v>
       </c>
       <c r="D54" t="str">
         <v>tamanho</v>
@@ -2274,13 +2283,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I54" t="str">
-        <v>lilas orquidea</v>
+        <v>Rosa blush</v>
       </c>
       <c r="J54">
         <v>10</v>
       </c>
       <c r="K54" t="str">
-        <v>07896968318133</v>
+        <v>07896968318140</v>
       </c>
     </row>
     <row r="55">
@@ -2288,10 +2297,10 @@
         <v/>
       </c>
       <c r="B55" t="str">
-        <v>00000000007712</v>
+        <v>00000000007713</v>
       </c>
       <c r="C55" t="str">
-        <v>000000000077121</v>
+        <v>000000000077131</v>
       </c>
       <c r="D55" t="str">
         <v>tamanho</v>
@@ -2309,13 +2318,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I55" t="str">
-        <v>Rosa blush</v>
+        <v>Verde menta</v>
       </c>
       <c r="J55">
         <v>10</v>
       </c>
       <c r="K55" t="str">
-        <v>07896968318140</v>
+        <v>07896968318157</v>
       </c>
     </row>
     <row r="56">
@@ -2323,10 +2332,10 @@
         <v/>
       </c>
       <c r="B56" t="str">
-        <v>00000000007713</v>
+        <v>00000000007901</v>
       </c>
       <c r="C56" t="str">
-        <v>000000000077131</v>
+        <v>000000000080811</v>
       </c>
       <c r="D56" t="str">
         <v>tamanho</v>
@@ -2338,19 +2347,19 @@
         <v>7.49</v>
       </c>
       <c r="G56" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H56" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I56" t="str">
-        <v>Verde menta</v>
+        <v>LARANJA CANDY</v>
       </c>
       <c r="J56">
         <v>10</v>
       </c>
       <c r="K56" t="str">
-        <v>07896968318157</v>
+        <v>07896968317945</v>
       </c>
     </row>
     <row r="57">
@@ -2358,10 +2367,10 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <v>00000000007901</v>
+        <v>00000000008174</v>
       </c>
       <c r="C57" t="str">
-        <v>000000000080811</v>
+        <v>000000000081741</v>
       </c>
       <c r="D57" t="str">
         <v>tamanho</v>
@@ -2379,13 +2388,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I57" t="str">
-        <v>LARANJA CANDY</v>
+        <v>NUDE</v>
       </c>
       <c r="J57">
         <v>10</v>
       </c>
       <c r="K57" t="str">
-        <v>07896968317945</v>
+        <v>07896968318430</v>
       </c>
     </row>
     <row r="58">
@@ -2393,10 +2402,10 @@
         <v/>
       </c>
       <c r="B58" t="str">
-        <v>00000000008174</v>
+        <v>00000000008175</v>
       </c>
       <c r="C58" t="str">
-        <v>000000000081741</v>
+        <v>000000000081751</v>
       </c>
       <c r="D58" t="str">
         <v>tamanho</v>
@@ -2414,13 +2423,13 @@
         <v>5" - 13cm</v>
       </c>
       <c r="I58" t="str">
-        <v>NUDE</v>
+        <v>MAGENTA</v>
       </c>
       <c r="J58">
         <v>10</v>
       </c>
       <c r="K58" t="str">
-        <v>07896968318430</v>
+        <v>07896968318447</v>
       </c>
     </row>
     <row r="59">
@@ -2428,10 +2437,10 @@
         <v/>
       </c>
       <c r="B59" t="str">
-        <v>00000000008175</v>
+        <v>00000000008643</v>
       </c>
       <c r="C59" t="str">
-        <v>000000000081751</v>
+        <v>000000000086431</v>
       </c>
       <c r="D59" t="str">
         <v>tamanho</v>
@@ -2440,22 +2449,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F59" t="str">
-        <v>7.49</v>
+        <v>9.99</v>
       </c>
       <c r="G59" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H59" t="str">
         <v>5" - 13cm</v>
       </c>
       <c r="I59" t="str">
-        <v>MAGENTA</v>
+        <v>Sortido CANDY</v>
       </c>
       <c r="J59">
         <v>10</v>
       </c>
       <c r="K59" t="str">
-        <v>07896968318447</v>
+        <v>07896968318423</v>
       </c>
     </row>
     <row r="60">
@@ -2463,10 +2472,10 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <v>00000000008643</v>
+        <v>00000000002173</v>
       </c>
       <c r="C60" t="str">
-        <v>000000000086431</v>
+        <v>000000000021791</v>
       </c>
       <c r="D60" t="str">
         <v>tamanho</v>
@@ -2475,22 +2484,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F60" t="str">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="G60" t="str">
-        <v>PEROLA</v>
+        <v>LISO</v>
       </c>
       <c r="H60" t="str">
-        <v>5" - 13cm</v>
+        <v>6" - 15cm</v>
       </c>
       <c r="I60" t="str">
-        <v>Sortido CANDY</v>
+        <v>Vermelho</v>
       </c>
       <c r="J60">
         <v>10</v>
       </c>
       <c r="K60" t="str">
-        <v>07896968318423</v>
+        <v>07896968307052</v>
       </c>
     </row>
     <row r="61">
@@ -2498,10 +2507,10 @@
         <v/>
       </c>
       <c r="B61" t="str">
-        <v>00000000002173</v>
+        <v>00000000002170</v>
       </c>
       <c r="C61" t="str">
-        <v>000000000021791</v>
+        <v>000000000046191</v>
       </c>
       <c r="D61" t="str">
         <v>tamanho</v>
@@ -2510,7 +2519,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F61" t="str">
-        <v>7.99</v>
+        <v>7.37</v>
       </c>
       <c r="G61" t="str">
         <v>LISO</v>
@@ -2519,13 +2528,13 @@
         <v>6" - 15cm</v>
       </c>
       <c r="I61" t="str">
-        <v>Vermelho</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J61">
         <v>10</v>
       </c>
       <c r="K61" t="str">
-        <v>07896968307052</v>
+        <v>07896968307069</v>
       </c>
     </row>
     <row r="62">
@@ -2533,10 +2542,10 @@
         <v/>
       </c>
       <c r="B62" t="str">
-        <v>00000000002170</v>
+        <v>00000000002161</v>
       </c>
       <c r="C62" t="str">
-        <v>000000000046191</v>
+        <v>000000000021611</v>
       </c>
       <c r="D62" t="str">
         <v>tamanho</v>
@@ -2545,22 +2554,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F62" t="str">
-        <v>7.37</v>
+        <v>11.99</v>
       </c>
       <c r="G62" t="str">
-        <v>LISO</v>
+        <v>METALIZADO</v>
       </c>
       <c r="H62" t="str">
-        <v>6" - 15cm</v>
+        <v>7" - 18cm</v>
       </c>
       <c r="I62" t="str">
-        <v>Rosa Baby</v>
+        <v>Prata</v>
       </c>
       <c r="J62">
         <v>10</v>
       </c>
       <c r="K62" t="str">
-        <v>07896968307069</v>
+        <v>07896968307311</v>
       </c>
     </row>
     <row r="63">
@@ -2568,10 +2577,10 @@
         <v/>
       </c>
       <c r="B63" t="str">
-        <v>00000000002161</v>
+        <v>00000000002162</v>
       </c>
       <c r="C63" t="str">
-        <v>000000000021611</v>
+        <v>000000000021621</v>
       </c>
       <c r="D63" t="str">
         <v>tamanho</v>
@@ -2580,22 +2589,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F63" t="str">
-        <v>11.99</v>
+        <v>8.99</v>
       </c>
       <c r="G63" t="str">
-        <v>METALIZADO</v>
+        <v>LISO</v>
       </c>
       <c r="H63" t="str">
         <v>7" - 18cm</v>
       </c>
       <c r="I63" t="str">
-        <v>Prata</v>
+        <v>Amarelo</v>
       </c>
       <c r="J63">
         <v>10</v>
       </c>
       <c r="K63" t="str">
-        <v>07896968307311</v>
+        <v>07896968307090</v>
       </c>
     </row>
     <row r="64">
@@ -2603,10 +2612,10 @@
         <v/>
       </c>
       <c r="B64" t="str">
-        <v>00000000002162</v>
+        <v>00000000002163</v>
       </c>
       <c r="C64" t="str">
-        <v>000000000021621</v>
+        <v>000000000021631</v>
       </c>
       <c r="D64" t="str">
         <v>tamanho</v>
@@ -2624,13 +2633,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I64" t="str">
-        <v>Amarelo</v>
+        <v>Azul Claro</v>
       </c>
       <c r="J64">
         <v>10</v>
       </c>
       <c r="K64" t="str">
-        <v>07896968307090</v>
+        <v>07896968307106</v>
       </c>
     </row>
     <row r="65">
@@ -2638,10 +2647,10 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <v>00000000002163</v>
+        <v>00000000002164</v>
       </c>
       <c r="C65" t="str">
-        <v>000000000021631</v>
+        <v>000000000021641</v>
       </c>
       <c r="D65" t="str">
         <v>tamanho</v>
@@ -2659,13 +2668,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I65" t="str">
-        <v>Azul Claro</v>
+        <v>Azul Escuro</v>
       </c>
       <c r="J65">
         <v>10</v>
       </c>
       <c r="K65" t="str">
-        <v>07896968307106</v>
+        <v>07896968307113</v>
       </c>
     </row>
     <row r="66">
@@ -2673,10 +2682,10 @@
         <v/>
       </c>
       <c r="B66" t="str">
-        <v>00000000002164</v>
+        <v>00000000002165</v>
       </c>
       <c r="C66" t="str">
-        <v>000000000021641</v>
+        <v>000000000021651</v>
       </c>
       <c r="D66" t="str">
         <v>tamanho</v>
@@ -2694,13 +2703,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I66" t="str">
-        <v>Azul Escuro</v>
+        <v>Branco</v>
       </c>
       <c r="J66">
         <v>10</v>
       </c>
       <c r="K66" t="str">
-        <v>07896968307113</v>
+        <v>07896968307120</v>
       </c>
     </row>
     <row r="67">
@@ -2708,10 +2717,10 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <v>00000000002165</v>
+        <v>00000000002166</v>
       </c>
       <c r="C67" t="str">
-        <v>000000000021651</v>
+        <v>000000000021661</v>
       </c>
       <c r="D67" t="str">
         <v>tamanho</v>
@@ -2729,13 +2738,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I67" t="str">
-        <v>Branco</v>
+        <v>Laranja</v>
       </c>
       <c r="J67">
         <v>10</v>
       </c>
       <c r="K67" t="str">
-        <v>07896968307120</v>
+        <v>07896968307144</v>
       </c>
     </row>
     <row r="68">
@@ -2743,10 +2752,10 @@
         <v/>
       </c>
       <c r="B68" t="str">
-        <v>00000000002166</v>
+        <v>00000000002167</v>
       </c>
       <c r="C68" t="str">
-        <v>000000000021661</v>
+        <v>000000000021671</v>
       </c>
       <c r="D68" t="str">
         <v>tamanho</v>
@@ -2764,13 +2773,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I68" t="str">
-        <v>Laranja</v>
+        <v>Lilás</v>
       </c>
       <c r="J68">
         <v>10</v>
       </c>
       <c r="K68" t="str">
-        <v>07896968307144</v>
+        <v>07896968307151</v>
       </c>
     </row>
     <row r="69">
@@ -2778,10 +2787,10 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <v>00000000002167</v>
+        <v>00000000002168</v>
       </c>
       <c r="C69" t="str">
-        <v>000000000021671</v>
+        <v>000000000021681</v>
       </c>
       <c r="D69" t="str">
         <v>tamanho</v>
@@ -2799,13 +2808,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I69" t="str">
-        <v>Lilás</v>
+        <v>Pink</v>
       </c>
       <c r="J69">
         <v>10</v>
       </c>
       <c r="K69" t="str">
-        <v>07896968307151</v>
+        <v>07896968300626</v>
       </c>
     </row>
     <row r="70">
@@ -2813,10 +2822,10 @@
         <v/>
       </c>
       <c r="B70" t="str">
-        <v>00000000002168</v>
+        <v>00000000002169</v>
       </c>
       <c r="C70" t="str">
-        <v>000000000021681</v>
+        <v>000000000021691</v>
       </c>
       <c r="D70" t="str">
         <v>tamanho</v>
@@ -2834,13 +2843,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I70" t="str">
-        <v>Pink</v>
+        <v>Preto</v>
       </c>
       <c r="J70">
         <v>10</v>
       </c>
       <c r="K70" t="str">
-        <v>07896968300626</v>
+        <v>07896968307168</v>
       </c>
     </row>
     <row r="71">
@@ -2848,10 +2857,10 @@
         <v/>
       </c>
       <c r="B71" t="str">
-        <v>00000000002169</v>
+        <v>00000000002170</v>
       </c>
       <c r="C71" t="str">
-        <v>000000000021691</v>
+        <v>000000000021701</v>
       </c>
       <c r="D71" t="str">
         <v>tamanho</v>
@@ -2869,13 +2878,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I71" t="str">
-        <v>Preto</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J71">
         <v>10</v>
       </c>
       <c r="K71" t="str">
-        <v>07896968307168</v>
+        <v>07896968307175</v>
       </c>
     </row>
     <row r="72">
@@ -2883,10 +2892,10 @@
         <v/>
       </c>
       <c r="B72" t="str">
-        <v>00000000002170</v>
+        <v>00000000002171</v>
       </c>
       <c r="C72" t="str">
-        <v>000000000021701</v>
+        <v>000000000021711</v>
       </c>
       <c r="D72" t="str">
         <v>tamanho</v>
@@ -2904,13 +2913,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I72" t="str">
-        <v>Rosa Baby</v>
+        <v>Verde Claro</v>
       </c>
       <c r="J72">
         <v>10</v>
       </c>
       <c r="K72" t="str">
-        <v>07896968307175</v>
+        <v>07896968307205</v>
       </c>
     </row>
     <row r="73">
@@ -2918,10 +2927,10 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <v>00000000002171</v>
+        <v>00000000002172</v>
       </c>
       <c r="C73" t="str">
-        <v>000000000021711</v>
+        <v>000000000021721</v>
       </c>
       <c r="D73" t="str">
         <v>tamanho</v>
@@ -2939,13 +2948,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I73" t="str">
-        <v>Verde Claro</v>
+        <v>Verde Bandeira</v>
       </c>
       <c r="J73">
         <v>10</v>
       </c>
       <c r="K73" t="str">
-        <v>07896968307205</v>
+        <v>07896968307212</v>
       </c>
     </row>
     <row r="74">
@@ -2953,10 +2962,10 @@
         <v/>
       </c>
       <c r="B74" t="str">
-        <v>00000000002172</v>
+        <v>00000000002173</v>
       </c>
       <c r="C74" t="str">
-        <v>000000000021721</v>
+        <v>000000000021731</v>
       </c>
       <c r="D74" t="str">
         <v>tamanho</v>
@@ -2974,13 +2983,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I74" t="str">
-        <v>Verde Bandeira</v>
+        <v>Vermelho</v>
       </c>
       <c r="J74">
         <v>10</v>
       </c>
       <c r="K74" t="str">
-        <v>07896968307212</v>
+        <v>07896968307229</v>
       </c>
     </row>
     <row r="75">
@@ -2988,10 +2997,10 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <v>00000000002173</v>
+        <v>00000000002174</v>
       </c>
       <c r="C75" t="str">
-        <v>000000000021731</v>
+        <v>000000000021741</v>
       </c>
       <c r="D75" t="str">
         <v>tamanho</v>
@@ -3009,13 +3018,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I75" t="str">
-        <v>Vermelho</v>
+        <v>Marrom</v>
       </c>
       <c r="J75">
         <v>10</v>
       </c>
       <c r="K75" t="str">
-        <v>07896968307229</v>
+        <v>07896968301814</v>
       </c>
     </row>
     <row r="76">
@@ -3023,10 +3032,10 @@
         <v/>
       </c>
       <c r="B76" t="str">
-        <v>00000000002174</v>
+        <v>00000000002175</v>
       </c>
       <c r="C76" t="str">
-        <v>000000000021741</v>
+        <v>000000000021751</v>
       </c>
       <c r="D76" t="str">
         <v>tamanho</v>
@@ -3044,13 +3053,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I76" t="str">
-        <v>Marrom</v>
+        <v>Rosa Forte</v>
       </c>
       <c r="J76">
         <v>10</v>
       </c>
       <c r="K76" t="str">
-        <v>07896968301814</v>
+        <v>07896968307182</v>
       </c>
     </row>
     <row r="77">
@@ -3058,10 +3067,10 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <v>00000000002175</v>
+        <v>00000000002176</v>
       </c>
       <c r="C77" t="str">
-        <v>000000000021751</v>
+        <v>000000000021761</v>
       </c>
       <c r="D77" t="str">
         <v>tamanho</v>
@@ -3079,13 +3088,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I77" t="str">
-        <v>Rosa Forte</v>
+        <v>Verde LimAO</v>
       </c>
       <c r="J77">
         <v>10</v>
       </c>
       <c r="K77" t="str">
-        <v>07896968307182</v>
+        <v>07896968307779</v>
       </c>
     </row>
     <row r="78">
@@ -3093,10 +3102,10 @@
         <v/>
       </c>
       <c r="B78" t="str">
-        <v>00000000002176</v>
+        <v>00000000002177</v>
       </c>
       <c r="C78" t="str">
-        <v>000000000021761</v>
+        <v>000000000021771</v>
       </c>
       <c r="D78" t="str">
         <v>tamanho</v>
@@ -3114,13 +3123,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I78" t="str">
-        <v>Verde LimAO</v>
+        <v>Violeta</v>
       </c>
       <c r="J78">
         <v>10</v>
       </c>
       <c r="K78" t="str">
-        <v>07896968307779</v>
+        <v>07896968307762</v>
       </c>
     </row>
     <row r="79">
@@ -3128,10 +3137,10 @@
         <v/>
       </c>
       <c r="B79" t="str">
-        <v>00000000002177</v>
+        <v>00000000002178</v>
       </c>
       <c r="C79" t="str">
-        <v>000000000021771</v>
+        <v>000000000021781</v>
       </c>
       <c r="D79" t="str">
         <v>tamanho</v>
@@ -3149,13 +3158,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I79" t="str">
-        <v>Violeta</v>
+        <v>Sortido</v>
       </c>
       <c r="J79">
         <v>10</v>
       </c>
       <c r="K79" t="str">
-        <v>07896968307762</v>
+        <v>07896968307083</v>
       </c>
     </row>
     <row r="80">
@@ -3163,10 +3172,10 @@
         <v/>
       </c>
       <c r="B80" t="str">
-        <v>00000000002178</v>
+        <v>00000000002181</v>
       </c>
       <c r="C80" t="str">
-        <v>000000000021781</v>
+        <v>000000000021811</v>
       </c>
       <c r="D80" t="str">
         <v>tamanho</v>
@@ -3175,22 +3184,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F80" t="str">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="G80" t="str">
-        <v>LISO</v>
+        <v>METALIZADO</v>
       </c>
       <c r="H80" t="str">
         <v>7" - 18cm</v>
       </c>
       <c r="I80" t="str">
-        <v>Sortido</v>
+        <v>Ouro</v>
       </c>
       <c r="J80">
         <v>10</v>
       </c>
       <c r="K80" t="str">
-        <v>07896968307083</v>
+        <v>07896968307304</v>
       </c>
     </row>
     <row r="81">
@@ -3198,10 +3207,10 @@
         <v/>
       </c>
       <c r="B81" t="str">
-        <v>00000000002181</v>
+        <v>00000000002182</v>
       </c>
       <c r="C81" t="str">
-        <v>000000000021811</v>
+        <v>000000000021821</v>
       </c>
       <c r="D81" t="str">
         <v>tamanho</v>
@@ -3219,13 +3228,13 @@
         <v>7" - 18cm</v>
       </c>
       <c r="I81" t="str">
-        <v>Ouro</v>
+        <v>Sortido</v>
       </c>
       <c r="J81">
         <v>10</v>
       </c>
       <c r="K81" t="str">
-        <v>07896968307304</v>
+        <v>07896968307236</v>
       </c>
     </row>
     <row r="82">
@@ -3233,10 +3242,10 @@
         <v/>
       </c>
       <c r="B82" t="str">
-        <v>00000000002182</v>
+        <v>00000000002162</v>
       </c>
       <c r="C82" t="str">
-        <v>000000000021821</v>
+        <v>000000000027811</v>
       </c>
       <c r="D82" t="str">
         <v>tamanho</v>
@@ -3245,22 +3254,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F82" t="str">
-        <v>11.99</v>
+        <v>9.25</v>
       </c>
       <c r="G82" t="str">
-        <v>METALIZADO</v>
+        <v>LISO</v>
       </c>
       <c r="H82" t="str">
-        <v>7" - 18cm</v>
+        <v>8" - 20cm</v>
       </c>
       <c r="I82" t="str">
-        <v>Sortido</v>
+        <v>Amarelo</v>
       </c>
       <c r="J82">
         <v>10</v>
       </c>
       <c r="K82" t="str">
-        <v>07896968307236</v>
+        <v>07896968310182</v>
       </c>
     </row>
     <row r="83">
@@ -3268,10 +3277,10 @@
         <v/>
       </c>
       <c r="B83" t="str">
-        <v>00000000002162</v>
+        <v>00000000002163</v>
       </c>
       <c r="C83" t="str">
-        <v>000000000027811</v>
+        <v>000000000027821</v>
       </c>
       <c r="D83" t="str">
         <v>tamanho</v>
@@ -3289,13 +3298,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I83" t="str">
-        <v>Amarelo</v>
+        <v>Azul Claro</v>
       </c>
       <c r="J83">
         <v>10</v>
       </c>
       <c r="K83" t="str">
-        <v>07896968310182</v>
+        <v>07896968310199</v>
       </c>
     </row>
     <row r="84">
@@ -3303,10 +3312,10 @@
         <v/>
       </c>
       <c r="B84" t="str">
-        <v>00000000002163</v>
+        <v>00000000002783</v>
       </c>
       <c r="C84" t="str">
-        <v>000000000027821</v>
+        <v>000000000027831</v>
       </c>
       <c r="D84" t="str">
         <v>tamanho</v>
@@ -3324,13 +3333,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I84" t="str">
-        <v>Azul Claro</v>
+        <v>AZUL ROYAL</v>
       </c>
       <c r="J84">
         <v>10</v>
       </c>
       <c r="K84" t="str">
-        <v>07896968310199</v>
+        <v>07896968310205</v>
       </c>
     </row>
     <row r="85">
@@ -3338,10 +3347,10 @@
         <v/>
       </c>
       <c r="B85" t="str">
-        <v>00000000002783</v>
+        <v>00000000002165</v>
       </c>
       <c r="C85" t="str">
-        <v>000000000027831</v>
+        <v>000000000027841</v>
       </c>
       <c r="D85" t="str">
         <v>tamanho</v>
@@ -3359,13 +3368,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I85" t="str">
-        <v>AZUL ROYAL</v>
+        <v>Branco</v>
       </c>
       <c r="J85">
         <v>10</v>
       </c>
       <c r="K85" t="str">
-        <v>07896968310205</v>
+        <v>07896968310229</v>
       </c>
     </row>
     <row r="86">
@@ -3373,10 +3382,10 @@
         <v/>
       </c>
       <c r="B86" t="str">
-        <v>00000000002165</v>
+        <v>00000000002166</v>
       </c>
       <c r="C86" t="str">
-        <v>000000000027841</v>
+        <v>000000000027851</v>
       </c>
       <c r="D86" t="str">
         <v>tamanho</v>
@@ -3394,13 +3403,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I86" t="str">
-        <v>Branco</v>
+        <v>Laranja</v>
       </c>
       <c r="J86">
         <v>10</v>
       </c>
       <c r="K86" t="str">
-        <v>07896968310229</v>
+        <v>07896968310236</v>
       </c>
     </row>
     <row r="87">
@@ -3408,10 +3417,10 @@
         <v/>
       </c>
       <c r="B87" t="str">
-        <v>00000000002166</v>
+        <v>00000000002167</v>
       </c>
       <c r="C87" t="str">
-        <v>000000000027851</v>
+        <v>000000000027861</v>
       </c>
       <c r="D87" t="str">
         <v>tamanho</v>
@@ -3429,13 +3438,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I87" t="str">
-        <v>Laranja</v>
+        <v>Lilás</v>
       </c>
       <c r="J87">
         <v>10</v>
       </c>
       <c r="K87" t="str">
-        <v>07896968310236</v>
+        <v>07896968310243</v>
       </c>
     </row>
     <row r="88">
@@ -3443,10 +3452,10 @@
         <v/>
       </c>
       <c r="B88" t="str">
-        <v>00000000002167</v>
+        <v>00000000002168</v>
       </c>
       <c r="C88" t="str">
-        <v>000000000027861</v>
+        <v>000000000027871</v>
       </c>
       <c r="D88" t="str">
         <v>tamanho</v>
@@ -3464,13 +3473,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I88" t="str">
-        <v>Lilás</v>
+        <v>Pink</v>
       </c>
       <c r="J88">
         <v>10</v>
       </c>
       <c r="K88" t="str">
-        <v>07896968310243</v>
+        <v>07896968311257</v>
       </c>
     </row>
     <row r="89">
@@ -3478,10 +3487,10 @@
         <v/>
       </c>
       <c r="B89" t="str">
-        <v>00000000002168</v>
+        <v>00000000002169</v>
       </c>
       <c r="C89" t="str">
-        <v>000000000027871</v>
+        <v>000000000027881</v>
       </c>
       <c r="D89" t="str">
         <v>tamanho</v>
@@ -3499,13 +3508,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I89" t="str">
-        <v>Pink</v>
+        <v>Preto</v>
       </c>
       <c r="J89">
         <v>10</v>
       </c>
       <c r="K89" t="str">
-        <v>07896968311257</v>
+        <v>07896968310250</v>
       </c>
     </row>
     <row r="90">
@@ -3513,10 +3522,10 @@
         <v/>
       </c>
       <c r="B90" t="str">
-        <v>00000000002169</v>
+        <v>00000000002170</v>
       </c>
       <c r="C90" t="str">
-        <v>000000000027881</v>
+        <v>000000000027891</v>
       </c>
       <c r="D90" t="str">
         <v>tamanho</v>
@@ -3534,13 +3543,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I90" t="str">
-        <v>Preto</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J90">
         <v>10</v>
       </c>
       <c r="K90" t="str">
-        <v>07896968310250</v>
+        <v>07896968310267</v>
       </c>
     </row>
     <row r="91">
@@ -3548,10 +3557,10 @@
         <v/>
       </c>
       <c r="B91" t="str">
-        <v>00000000002170</v>
+        <v>00000000002790</v>
       </c>
       <c r="C91" t="str">
-        <v>000000000027891</v>
+        <v>000000000027901</v>
       </c>
       <c r="D91" t="str">
         <v>tamanho</v>
@@ -3560,7 +3569,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F91" t="str">
-        <v>9.25</v>
+        <v>8.95</v>
       </c>
       <c r="G91" t="str">
         <v>LISO</v>
@@ -3569,13 +3578,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I91" t="str">
-        <v>Rosa Baby</v>
+        <v>VERDE ESCURO</v>
       </c>
       <c r="J91">
         <v>10</v>
       </c>
       <c r="K91" t="str">
-        <v>07896968310267</v>
+        <v>07896968310298</v>
       </c>
     </row>
     <row r="92">
@@ -3583,10 +3592,10 @@
         <v/>
       </c>
       <c r="B92" t="str">
-        <v>00000000002790</v>
+        <v>00000000002173</v>
       </c>
       <c r="C92" t="str">
-        <v>000000000027901</v>
+        <v>000000000027911</v>
       </c>
       <c r="D92" t="str">
         <v>tamanho</v>
@@ -3595,7 +3604,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F92" t="str">
-        <v>8.95</v>
+        <v>9.25</v>
       </c>
       <c r="G92" t="str">
         <v>LISO</v>
@@ -3604,13 +3613,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I92" t="str">
-        <v>VERDE ESCURO</v>
+        <v>Vermelho</v>
       </c>
       <c r="J92">
         <v>10</v>
       </c>
       <c r="K92" t="str">
-        <v>07896968310298</v>
+        <v>07896968310311</v>
       </c>
     </row>
     <row r="93">
@@ -3618,10 +3627,10 @@
         <v/>
       </c>
       <c r="B93" t="str">
-        <v>00000000002173</v>
+        <v>00000000002174</v>
       </c>
       <c r="C93" t="str">
-        <v>000000000027911</v>
+        <v>000000000027921</v>
       </c>
       <c r="D93" t="str">
         <v>tamanho</v>
@@ -3630,7 +3639,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F93" t="str">
-        <v>9.25</v>
+        <v>8.95</v>
       </c>
       <c r="G93" t="str">
         <v>LISO</v>
@@ -3639,13 +3648,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I93" t="str">
-        <v>Vermelho</v>
+        <v>Marrom</v>
       </c>
       <c r="J93">
         <v>10</v>
       </c>
       <c r="K93" t="str">
-        <v>07896968310311</v>
+        <v>07896968311240</v>
       </c>
     </row>
     <row r="94">
@@ -3653,10 +3662,10 @@
         <v/>
       </c>
       <c r="B94" t="str">
-        <v>00000000002174</v>
+        <v>00000000002176</v>
       </c>
       <c r="C94" t="str">
-        <v>000000000027921</v>
+        <v>000000000027931</v>
       </c>
       <c r="D94" t="str">
         <v>tamanho</v>
@@ -3665,7 +3674,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F94" t="str">
-        <v>8.95</v>
+        <v>9.25</v>
       </c>
       <c r="G94" t="str">
         <v>LISO</v>
@@ -3674,13 +3683,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I94" t="str">
-        <v>Marrom</v>
+        <v>Verde LimAO</v>
       </c>
       <c r="J94">
         <v>10</v>
       </c>
       <c r="K94" t="str">
-        <v>07896968311240</v>
+        <v>07896968310304</v>
       </c>
     </row>
     <row r="95">
@@ -3688,10 +3697,10 @@
         <v/>
       </c>
       <c r="B95" t="str">
-        <v>00000000002176</v>
+        <v>00000000002177</v>
       </c>
       <c r="C95" t="str">
-        <v>000000000027931</v>
+        <v>000000000027941</v>
       </c>
       <c r="D95" t="str">
         <v>tamanho</v>
@@ -3709,13 +3718,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I95" t="str">
-        <v>Verde LimAO</v>
+        <v>Violeta</v>
       </c>
       <c r="J95">
         <v>10</v>
       </c>
       <c r="K95" t="str">
-        <v>07896968310304</v>
+        <v>07896968311264</v>
       </c>
     </row>
     <row r="96">
@@ -3723,10 +3732,10 @@
         <v/>
       </c>
       <c r="B96" t="str">
-        <v>00000000002177</v>
+        <v>00000000002178</v>
       </c>
       <c r="C96" t="str">
-        <v>000000000027941</v>
+        <v>000000000027951</v>
       </c>
       <c r="D96" t="str">
         <v>tamanho</v>
@@ -3744,13 +3753,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I96" t="str">
-        <v>Violeta</v>
+        <v>Sortido</v>
       </c>
       <c r="J96">
         <v>10</v>
       </c>
       <c r="K96" t="str">
-        <v>07896968311264</v>
+        <v>07896968310175</v>
       </c>
     </row>
     <row r="97">
@@ -3758,10 +3767,10 @@
         <v/>
       </c>
       <c r="B97" t="str">
-        <v>00000000002178</v>
+        <v>00000000002164</v>
       </c>
       <c r="C97" t="str">
-        <v>000000000027951</v>
+        <v>000000000047511</v>
       </c>
       <c r="D97" t="str">
         <v>tamanho</v>
@@ -3779,13 +3788,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I97" t="str">
-        <v>Sortido</v>
+        <v>Azul Escuro</v>
       </c>
       <c r="J97">
         <v>10</v>
       </c>
       <c r="K97" t="str">
-        <v>07896968310175</v>
+        <v>07896968316009</v>
       </c>
     </row>
     <row r="98">
@@ -3793,10 +3802,10 @@
         <v/>
       </c>
       <c r="B98" t="str">
-        <v>00000000002164</v>
+        <v>00000000002175</v>
       </c>
       <c r="C98" t="str">
-        <v>000000000047511</v>
+        <v>000000000047561</v>
       </c>
       <c r="D98" t="str">
         <v>tamanho</v>
@@ -3814,13 +3823,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I98" t="str">
-        <v>Azul Escuro</v>
+        <v>Rosa Forte</v>
       </c>
       <c r="J98">
         <v>10</v>
       </c>
       <c r="K98" t="str">
-        <v>07896968316009</v>
+        <v>07896968310274</v>
       </c>
     </row>
     <row r="99">
@@ -3828,10 +3837,10 @@
         <v/>
       </c>
       <c r="B99" t="str">
-        <v>00000000002175</v>
+        <v>00000000004191</v>
       </c>
       <c r="C99" t="str">
-        <v>000000000047561</v>
+        <v>000000000047581</v>
       </c>
       <c r="D99" t="str">
         <v>tamanho</v>
@@ -3849,13 +3858,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I99" t="str">
-        <v>Rosa Forte</v>
+        <v>Verde</v>
       </c>
       <c r="J99">
         <v>10</v>
       </c>
       <c r="K99" t="str">
-        <v>07896968310274</v>
+        <v>07896968316252</v>
       </c>
     </row>
     <row r="100">
@@ -3863,10 +3872,10 @@
         <v/>
       </c>
       <c r="B100" t="str">
-        <v>00000000004191</v>
+        <v>00000000003704</v>
       </c>
       <c r="C100" t="str">
-        <v>000000000047581</v>
+        <v>000000000047601</v>
       </c>
       <c r="D100" t="str">
         <v>tamanho</v>
@@ -3884,13 +3893,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I100" t="str">
-        <v>Verde</v>
+        <v>CLEAR</v>
       </c>
       <c r="J100">
         <v>10</v>
       </c>
       <c r="K100" t="str">
-        <v>07896968316252</v>
+        <v>07896968310441</v>
       </c>
     </row>
     <row r="101">
@@ -3898,10 +3907,10 @@
         <v/>
       </c>
       <c r="B101" t="str">
-        <v>00000000003704</v>
+        <v>00000000004746</v>
       </c>
       <c r="C101" t="str">
-        <v>000000000047601</v>
+        <v>000000000047611</v>
       </c>
       <c r="D101" t="str">
         <v>tamanho</v>
@@ -3919,13 +3928,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I101" t="str">
-        <v>CLEAR</v>
+        <v>Azul Turquesa</v>
       </c>
       <c r="J101">
         <v>10</v>
       </c>
       <c r="K101" t="str">
-        <v>07896968310441</v>
+        <v>07896968315897</v>
       </c>
     </row>
     <row r="102">
@@ -3933,10 +3942,10 @@
         <v/>
       </c>
       <c r="B102" t="str">
-        <v>00000000004746</v>
+        <v>00000000004757</v>
       </c>
       <c r="C102" t="str">
-        <v>000000000047611</v>
+        <v>000000000047641</v>
       </c>
       <c r="D102" t="str">
         <v>tamanho</v>
@@ -3954,13 +3963,13 @@
         <v>8" - 20cm</v>
       </c>
       <c r="I102" t="str">
-        <v>Azul Turquesa</v>
+        <v>Marfim</v>
       </c>
       <c r="J102">
         <v>10</v>
       </c>
       <c r="K102" t="str">
-        <v>07896968315897</v>
+        <v>07896968311097</v>
       </c>
     </row>
     <row r="103">
@@ -3968,10 +3977,10 @@
         <v/>
       </c>
       <c r="B103" t="str">
-        <v>00000000004757</v>
+        <v>00000000002162</v>
       </c>
       <c r="C103" t="str">
-        <v>000000000047641</v>
+        <v>000000000027961</v>
       </c>
       <c r="D103" t="str">
         <v>tamanho</v>
@@ -3980,22 +3989,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F103" t="str">
-        <v>9.25</v>
+        <v>11.84</v>
       </c>
       <c r="G103" t="str">
         <v>LISO</v>
       </c>
       <c r="H103" t="str">
-        <v>8" - 20cm</v>
+        <v>9" - 23cm</v>
       </c>
       <c r="I103" t="str">
-        <v>Marfim</v>
+        <v>Amarelo</v>
       </c>
       <c r="J103">
         <v>10</v>
       </c>
       <c r="K103" t="str">
-        <v>07896968311097</v>
+        <v>07896968305522</v>
       </c>
     </row>
     <row r="104">
@@ -4003,10 +4012,10 @@
         <v/>
       </c>
       <c r="B104" t="str">
-        <v>00000000002162</v>
+        <v>00000000002163</v>
       </c>
       <c r="C104" t="str">
-        <v>000000000027961</v>
+        <v>000000000027971</v>
       </c>
       <c r="D104" t="str">
         <v>tamanho</v>
@@ -4024,13 +4033,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I104" t="str">
-        <v>Amarelo</v>
+        <v>Azul Claro</v>
       </c>
       <c r="J104">
         <v>10</v>
       </c>
       <c r="K104" t="str">
-        <v>07896968305522</v>
+        <v>07896968305539</v>
       </c>
     </row>
     <row r="105">
@@ -4038,10 +4047,10 @@
         <v/>
       </c>
       <c r="B105" t="str">
-        <v>00000000002163</v>
+        <v>00000000002783</v>
       </c>
       <c r="C105" t="str">
-        <v>000000000027971</v>
+        <v>000000000027981</v>
       </c>
       <c r="D105" t="str">
         <v>tamanho</v>
@@ -4059,13 +4068,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I105" t="str">
-        <v>Azul Claro</v>
+        <v>AZUL ROYAL</v>
       </c>
       <c r="J105">
         <v>10</v>
       </c>
       <c r="K105" t="str">
-        <v>07896968305539</v>
+        <v>07896968305546</v>
       </c>
     </row>
     <row r="106">
@@ -4073,10 +4082,10 @@
         <v/>
       </c>
       <c r="B106" t="str">
-        <v>00000000002783</v>
+        <v>00000000002165</v>
       </c>
       <c r="C106" t="str">
-        <v>000000000027981</v>
+        <v>000000000027991</v>
       </c>
       <c r="D106" t="str">
         <v>tamanho</v>
@@ -4094,13 +4103,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I106" t="str">
-        <v>AZUL ROYAL</v>
+        <v>Branco</v>
       </c>
       <c r="J106">
         <v>10</v>
       </c>
       <c r="K106" t="str">
-        <v>07896968305546</v>
+        <v>07896968305553</v>
       </c>
     </row>
     <row r="107">
@@ -4108,10 +4117,10 @@
         <v/>
       </c>
       <c r="B107" t="str">
-        <v>00000000002165</v>
+        <v>00000000002166</v>
       </c>
       <c r="C107" t="str">
-        <v>000000000027991</v>
+        <v>000000000028001</v>
       </c>
       <c r="D107" t="str">
         <v>tamanho</v>
@@ -4129,13 +4138,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I107" t="str">
-        <v>Branco</v>
+        <v>Laranja</v>
       </c>
       <c r="J107">
         <v>10</v>
       </c>
       <c r="K107" t="str">
-        <v>07896968305553</v>
+        <v>07896968305577</v>
       </c>
     </row>
     <row r="108">
@@ -4143,10 +4152,10 @@
         <v/>
       </c>
       <c r="B108" t="str">
-        <v>00000000002166</v>
+        <v>00000000002167</v>
       </c>
       <c r="C108" t="str">
-        <v>000000000028001</v>
+        <v>000000000028011</v>
       </c>
       <c r="D108" t="str">
         <v>tamanho</v>
@@ -4164,13 +4173,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I108" t="str">
-        <v>Laranja</v>
+        <v>Lilás</v>
       </c>
       <c r="J108">
         <v>10</v>
       </c>
       <c r="K108" t="str">
-        <v>07896968305577</v>
+        <v>07896968305584</v>
       </c>
     </row>
     <row r="109">
@@ -4178,10 +4187,10 @@
         <v/>
       </c>
       <c r="B109" t="str">
-        <v>00000000002167</v>
+        <v>00000000002168</v>
       </c>
       <c r="C109" t="str">
-        <v>000000000028011</v>
+        <v>000000000028021</v>
       </c>
       <c r="D109" t="str">
         <v>tamanho</v>
@@ -4199,13 +4208,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I109" t="str">
-        <v>Lilás</v>
+        <v>Pink</v>
       </c>
       <c r="J109">
         <v>10</v>
       </c>
       <c r="K109" t="str">
-        <v>07896968305584</v>
+        <v>07896968301012</v>
       </c>
     </row>
     <row r="110">
@@ -4213,10 +4222,10 @@
         <v/>
       </c>
       <c r="B110" t="str">
-        <v>00000000002168</v>
+        <v>00000000002169</v>
       </c>
       <c r="C110" t="str">
-        <v>000000000028021</v>
+        <v>000000000028031</v>
       </c>
       <c r="D110" t="str">
         <v>tamanho</v>
@@ -4234,13 +4243,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I110" t="str">
-        <v>Pink</v>
+        <v>Preto</v>
       </c>
       <c r="J110">
         <v>10</v>
       </c>
       <c r="K110" t="str">
-        <v>07896968301012</v>
+        <v>07896968305607</v>
       </c>
     </row>
     <row r="111">
@@ -4248,10 +4257,10 @@
         <v/>
       </c>
       <c r="B111" t="str">
-        <v>00000000002169</v>
+        <v>00000000002170</v>
       </c>
       <c r="C111" t="str">
-        <v>000000000028031</v>
+        <v>000000000028041</v>
       </c>
       <c r="D111" t="str">
         <v>tamanho</v>
@@ -4269,13 +4278,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I111" t="str">
-        <v>Preto</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J111">
         <v>10</v>
       </c>
       <c r="K111" t="str">
-        <v>07896968305607</v>
+        <v>07896968305614</v>
       </c>
     </row>
     <row r="112">
@@ -4283,10 +4292,10 @@
         <v/>
       </c>
       <c r="B112" t="str">
-        <v>00000000002170</v>
+        <v>00000000002790</v>
       </c>
       <c r="C112" t="str">
-        <v>000000000028041</v>
+        <v>000000000028051</v>
       </c>
       <c r="D112" t="str">
         <v>tamanho</v>
@@ -4295,7 +4304,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F112" t="str">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="G112" t="str">
         <v>LISO</v>
@@ -4304,13 +4313,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I112" t="str">
-        <v>Rosa Baby</v>
+        <v>VERDE ESCURO</v>
       </c>
       <c r="J112">
         <v>10</v>
       </c>
       <c r="K112" t="str">
-        <v>07896968305614</v>
+        <v>07896968305652</v>
       </c>
     </row>
     <row r="113">
@@ -4318,10 +4327,10 @@
         <v/>
       </c>
       <c r="B113" t="str">
-        <v>00000000002790</v>
+        <v>00000000002173</v>
       </c>
       <c r="C113" t="str">
-        <v>000000000028051</v>
+        <v>000000000028061</v>
       </c>
       <c r="D113" t="str">
         <v>tamanho</v>
@@ -4330,7 +4339,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F113" t="str">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="G113" t="str">
         <v>LISO</v>
@@ -4339,13 +4348,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I113" t="str">
-        <v>VERDE ESCURO</v>
+        <v>Vermelho</v>
       </c>
       <c r="J113">
         <v>10</v>
       </c>
       <c r="K113" t="str">
-        <v>07896968305652</v>
+        <v>07896968305669</v>
       </c>
     </row>
     <row r="114">
@@ -4353,10 +4362,10 @@
         <v/>
       </c>
       <c r="B114" t="str">
-        <v>00000000002173</v>
+        <v>00000000002174</v>
       </c>
       <c r="C114" t="str">
-        <v>000000000028061</v>
+        <v>000000000028071</v>
       </c>
       <c r="D114" t="str">
         <v>tamanho</v>
@@ -4374,13 +4383,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I114" t="str">
-        <v>Vermelho</v>
+        <v>Marrom</v>
       </c>
       <c r="J114">
         <v>10</v>
       </c>
       <c r="K114" t="str">
-        <v>07896968305669</v>
+        <v>07896968305591</v>
       </c>
     </row>
     <row r="115">
@@ -4388,10 +4397,10 @@
         <v/>
       </c>
       <c r="B115" t="str">
-        <v>00000000002174</v>
+        <v>00000000002176</v>
       </c>
       <c r="C115" t="str">
-        <v>000000000028071</v>
+        <v>000000000028081</v>
       </c>
       <c r="D115" t="str">
         <v>tamanho</v>
@@ -4400,7 +4409,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F115" t="str">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="G115" t="str">
         <v>LISO</v>
@@ -4409,13 +4418,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I115" t="str">
-        <v>Marrom</v>
+        <v>Verde LimAO</v>
       </c>
       <c r="J115">
         <v>10</v>
       </c>
       <c r="K115" t="str">
-        <v>07896968305591</v>
+        <v>07896968307878</v>
       </c>
     </row>
     <row r="116">
@@ -4423,10 +4432,10 @@
         <v/>
       </c>
       <c r="B116" t="str">
-        <v>00000000002176</v>
+        <v>00000000002177</v>
       </c>
       <c r="C116" t="str">
-        <v>000000000028081</v>
+        <v>000000000028091</v>
       </c>
       <c r="D116" t="str">
         <v>tamanho</v>
@@ -4435,7 +4444,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F116" t="str">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="G116" t="str">
         <v>LISO</v>
@@ -4444,13 +4453,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I116" t="str">
-        <v>Verde LimAO</v>
+        <v>Violeta</v>
       </c>
       <c r="J116">
         <v>10</v>
       </c>
       <c r="K116" t="str">
-        <v>07896968307878</v>
+        <v>07896968307861</v>
       </c>
     </row>
     <row r="117">
@@ -4458,10 +4467,10 @@
         <v/>
       </c>
       <c r="B117" t="str">
-        <v>00000000002177</v>
+        <v>00000000002178</v>
       </c>
       <c r="C117" t="str">
-        <v>000000000028091</v>
+        <v>000000000028101</v>
       </c>
       <c r="D117" t="str">
         <v>tamanho</v>
@@ -4479,13 +4488,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I117" t="str">
-        <v>Violeta</v>
+        <v>Sortido</v>
       </c>
       <c r="J117">
         <v>10</v>
       </c>
       <c r="K117" t="str">
-        <v>07896968307861</v>
+        <v>07896968305515</v>
       </c>
     </row>
     <row r="118">
@@ -4493,10 +4502,10 @@
         <v/>
       </c>
       <c r="B118" t="str">
-        <v>00000000002178</v>
+        <v>00000000002161</v>
       </c>
       <c r="C118" t="str">
-        <v>000000000028101</v>
+        <v>000000000030421</v>
       </c>
       <c r="D118" t="str">
         <v>tamanho</v>
@@ -4505,22 +4514,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F118" t="str">
-        <v>11.84</v>
+        <v>17.99</v>
       </c>
       <c r="G118" t="str">
-        <v>LISO</v>
+        <v>METALIZADO</v>
       </c>
       <c r="H118" t="str">
         <v>9" - 23cm</v>
       </c>
       <c r="I118" t="str">
-        <v>Sortido</v>
+        <v>Prata</v>
       </c>
       <c r="J118">
         <v>10</v>
       </c>
       <c r="K118" t="str">
-        <v>07896968305515</v>
+        <v>07896968306581</v>
       </c>
     </row>
     <row r="119">
@@ -4528,10 +4537,10 @@
         <v/>
       </c>
       <c r="B119" t="str">
-        <v>00000000002161</v>
+        <v>00000000003043</v>
       </c>
       <c r="C119" t="str">
-        <v>000000000030421</v>
+        <v>000000000030431</v>
       </c>
       <c r="D119" t="str">
         <v>tamanho</v>
@@ -4540,22 +4549,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F119" t="str">
-        <v>17.99</v>
+        <v>13.95</v>
       </c>
       <c r="G119" t="str">
-        <v>METALIZADO</v>
+        <v>NEON</v>
       </c>
       <c r="H119" t="str">
         <v>9" - 23cm</v>
       </c>
       <c r="I119" t="str">
-        <v>Prata</v>
+        <v>Sortido</v>
       </c>
       <c r="J119">
         <v>10</v>
       </c>
       <c r="K119" t="str">
-        <v>07896968306581</v>
+        <v>07896968301043</v>
       </c>
     </row>
     <row r="120">
@@ -4563,10 +4572,10 @@
         <v/>
       </c>
       <c r="B120" t="str">
-        <v>00000000003043</v>
+        <v>00000000003574</v>
       </c>
       <c r="C120" t="str">
-        <v>000000000030431</v>
+        <v>000000000035741</v>
       </c>
       <c r="D120" t="str">
         <v>tamanho</v>
@@ -4575,7 +4584,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F120" t="str">
-        <v>13.95</v>
+        <v>14.99</v>
       </c>
       <c r="G120" t="str">
         <v>NEON</v>
@@ -4584,13 +4593,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I120" t="str">
-        <v>Sortido</v>
+        <v>Amarelo</v>
       </c>
       <c r="J120">
         <v>10</v>
       </c>
       <c r="K120" t="str">
-        <v>07896968301043</v>
+        <v>07896968303399</v>
       </c>
     </row>
     <row r="121">
@@ -4598,10 +4607,10 @@
         <v/>
       </c>
       <c r="B121" t="str">
-        <v>00000000003574</v>
+        <v>00000000003575</v>
       </c>
       <c r="C121" t="str">
-        <v>000000000035741</v>
+        <v>000000000035751</v>
       </c>
       <c r="D121" t="str">
         <v>tamanho</v>
@@ -4619,13 +4628,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I121" t="str">
-        <v>Amarelo</v>
+        <v>Azul Escuro</v>
       </c>
       <c r="J121">
         <v>10</v>
       </c>
       <c r="K121" t="str">
-        <v>07896968303399</v>
+        <v>07896968303412</v>
       </c>
     </row>
     <row r="122">
@@ -4633,10 +4642,10 @@
         <v/>
       </c>
       <c r="B122" t="str">
-        <v>00000000003575</v>
+        <v>00000000003576</v>
       </c>
       <c r="C122" t="str">
-        <v>000000000035751</v>
+        <v>000000000035761</v>
       </c>
       <c r="D122" t="str">
         <v>tamanho</v>
@@ -4654,13 +4663,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I122" t="str">
-        <v>Azul Escuro</v>
+        <v>Laranja</v>
       </c>
       <c r="J122">
         <v>10</v>
       </c>
       <c r="K122" t="str">
-        <v>07896968303412</v>
+        <v>07896968303436</v>
       </c>
     </row>
     <row r="123">
@@ -4668,10 +4677,10 @@
         <v/>
       </c>
       <c r="B123" t="str">
-        <v>00000000003576</v>
+        <v>00000000003577</v>
       </c>
       <c r="C123" t="str">
-        <v>000000000035761</v>
+        <v>000000000035771</v>
       </c>
       <c r="D123" t="str">
         <v>tamanho</v>
@@ -4680,7 +4689,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F123" t="str">
-        <v>14.99</v>
+        <v>13.95</v>
       </c>
       <c r="G123" t="str">
         <v>NEON</v>
@@ -4689,13 +4698,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I123" t="str">
-        <v>Laranja</v>
+        <v>Verde LimAO</v>
       </c>
       <c r="J123">
         <v>10</v>
       </c>
       <c r="K123" t="str">
-        <v>07896968303436</v>
+        <v>07896968303405</v>
       </c>
     </row>
     <row r="124">
@@ -4703,10 +4712,10 @@
         <v/>
       </c>
       <c r="B124" t="str">
-        <v>00000000003577</v>
+        <v>00000000003704</v>
       </c>
       <c r="C124" t="str">
-        <v>000000000035771</v>
+        <v>000000000037041</v>
       </c>
       <c r="D124" t="str">
         <v>tamanho</v>
@@ -4715,22 +4724,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F124" t="str">
-        <v>13.95</v>
+        <v>8.25</v>
       </c>
       <c r="G124" t="str">
-        <v>NEON</v>
+        <v>LISO</v>
       </c>
       <c r="H124" t="str">
         <v>9" - 23cm</v>
       </c>
       <c r="I124" t="str">
-        <v>Verde LimAO</v>
+        <v>CLEAR</v>
       </c>
       <c r="J124">
         <v>10</v>
       </c>
       <c r="K124" t="str">
-        <v>07896968303405</v>
+        <v>07896968300213</v>
       </c>
     </row>
     <row r="125">
@@ -4738,10 +4747,10 @@
         <v/>
       </c>
       <c r="B125" t="str">
-        <v>00000000003704</v>
+        <v>00000000004093</v>
       </c>
       <c r="C125" t="str">
-        <v>000000000037041</v>
+        <v>000000000040981</v>
       </c>
       <c r="D125" t="str">
         <v>tamanho</v>
@@ -4750,7 +4759,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F125" t="str">
-        <v>8.25</v>
+        <v>11.37</v>
       </c>
       <c r="G125" t="str">
         <v>LISO</v>
@@ -4759,13 +4768,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I125" t="str">
-        <v>CLEAR</v>
+        <v>CARAMELO</v>
       </c>
       <c r="J125">
         <v>10</v>
       </c>
       <c r="K125" t="str">
-        <v>07896968300213</v>
+        <v>07896968316504</v>
       </c>
     </row>
     <row r="126">
@@ -4773,10 +4782,10 @@
         <v/>
       </c>
       <c r="B126" t="str">
-        <v>00000000004093</v>
+        <v>00000000004094</v>
       </c>
       <c r="C126" t="str">
-        <v>000000000040981</v>
+        <v>000000000040991</v>
       </c>
       <c r="D126" t="str">
         <v>tamanho</v>
@@ -4794,13 +4803,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I126" t="str">
-        <v>CARAMELO</v>
+        <v>VERDE MILITAR</v>
       </c>
       <c r="J126">
         <v>10</v>
       </c>
       <c r="K126" t="str">
-        <v>07896968316504</v>
+        <v>07896968316542</v>
       </c>
     </row>
     <row r="127">
@@ -4808,10 +4817,10 @@
         <v/>
       </c>
       <c r="B127" t="str">
-        <v>00000000004094</v>
+        <v>00000000004095</v>
       </c>
       <c r="C127" t="str">
-        <v>000000000040991</v>
+        <v>000000000041001</v>
       </c>
       <c r="D127" t="str">
         <v>tamanho</v>
@@ -4820,7 +4829,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F127" t="str">
-        <v>11.37</v>
+        <v>11.49</v>
       </c>
       <c r="G127" t="str">
         <v>LISO</v>
@@ -4829,13 +4838,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I127" t="str">
-        <v>VERDE MILITAR</v>
+        <v>VERDE oliva</v>
       </c>
       <c r="J127">
         <v>10</v>
       </c>
       <c r="K127" t="str">
-        <v>07896968316542</v>
+        <v>07896968316566</v>
       </c>
     </row>
     <row r="128">
@@ -4843,10 +4852,10 @@
         <v/>
       </c>
       <c r="B128" t="str">
-        <v>00000000004095</v>
+        <v>00000000004096</v>
       </c>
       <c r="C128" t="str">
-        <v>000000000041001</v>
+        <v>000000000041011</v>
       </c>
       <c r="D128" t="str">
         <v>tamanho</v>
@@ -4855,7 +4864,7 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F128" t="str">
-        <v>11.49</v>
+        <v>11.37</v>
       </c>
       <c r="G128" t="str">
         <v>LISO</v>
@@ -4864,13 +4873,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I128" t="str">
-        <v>VERDE oliva</v>
+        <v>VERMELHO RUBI</v>
       </c>
       <c r="J128">
         <v>10</v>
       </c>
       <c r="K128" t="str">
-        <v>07896968316566</v>
+        <v>07896968316580</v>
       </c>
     </row>
     <row r="129">
@@ -4878,10 +4887,10 @@
         <v/>
       </c>
       <c r="B129" t="str">
-        <v>00000000004096</v>
+        <v>00000000004097</v>
       </c>
       <c r="C129" t="str">
-        <v>000000000041011</v>
+        <v>000000000041021</v>
       </c>
       <c r="D129" t="str">
         <v>tamanho</v>
@@ -4899,13 +4908,13 @@
         <v>9" - 23cm</v>
       </c>
       <c r="I129" t="str">
-        <v>VERMELHO RUBI</v>
+        <v>VINHO TINTO</v>
       </c>
       <c r="J129">
         <v>10</v>
       </c>
       <c r="K129" t="str">
-        <v>07896968316580</v>
+        <v>07896968316627</v>
       </c>
     </row>
     <row r="130">
@@ -4913,10 +4922,10 @@
         <v/>
       </c>
       <c r="B130" t="str">
-        <v>00000000004097</v>
+        <v>00000000003570</v>
       </c>
       <c r="C130" t="str">
-        <v>000000000041021</v>
+        <v>000000000041031</v>
       </c>
       <c r="D130" t="str">
         <v>tamanho</v>
@@ -4925,22 +4934,22 @@
         <v>50 UNIDADES</v>
       </c>
       <c r="F130" t="str">
-        <v>11.37</v>
+        <v>11.49</v>
       </c>
       <c r="G130" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H130" t="str">
         <v>9" - 23cm</v>
       </c>
       <c r="I130" t="str">
-        <v>VINHO TINTO</v>
+        <v>Sortido</v>
       </c>
       <c r="J130">
         <v>10</v>
       </c>
       <c r="K130" t="str">
-        <v>07896968316627</v>
+        <v>07896968313855</v>
       </c>
     </row>
     <row r="131">
@@ -6398,7 +6407,7 @@
         <v>11.49</v>
       </c>
       <c r="G172" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H172" t="str">
         <v>9" - 23cm</v>
@@ -6433,7 +6442,7 @@
         <v>11.37</v>
       </c>
       <c r="G173" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H173" t="str">
         <v>9" - 23cm</v>
@@ -6468,7 +6477,7 @@
         <v>11.49</v>
       </c>
       <c r="G174" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H174" t="str">
         <v>9" - 23cm</v>
@@ -6503,7 +6512,7 @@
         <v>11.49</v>
       </c>
       <c r="G175" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H175" t="str">
         <v>9" - 23cm</v>
@@ -6608,7 +6617,7 @@
         <v>11.37</v>
       </c>
       <c r="G178" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H178" t="str">
         <v>9" - 23cm</v>
@@ -6958,7 +6967,7 @@
         <v>8.49</v>
       </c>
       <c r="G188" t="str">
-        <v>PEROLA</v>
+        <v>CANDY</v>
       </c>
       <c r="H188" t="str">
         <v>9" - 23cm</v>
@@ -6993,7 +7002,7 @@
         <v>8.49</v>
       </c>
       <c r="G189" t="str">
-        <v>PEROLA</v>
+        <v>CANDY</v>
       </c>
       <c r="H189" t="str">
         <v>9" - 23cm</v>
@@ -7028,7 +7037,7 @@
         <v>8.49</v>
       </c>
       <c r="G190" t="str">
-        <v>PEROLA</v>
+        <v>CANDY</v>
       </c>
       <c r="H190" t="str">
         <v>9" - 23cm</v>
@@ -7063,7 +7072,7 @@
         <v>8.49</v>
       </c>
       <c r="G191" t="str">
-        <v>PEROLA</v>
+        <v>CANDY</v>
       </c>
       <c r="H191" t="str">
         <v>9" - 23cm</v>
@@ -7098,7 +7107,7 @@
         <v>8.49</v>
       </c>
       <c r="G192" t="str">
-        <v>PEROLA</v>
+        <v>CANDY</v>
       </c>
       <c r="H192" t="str">
         <v>9" - 23cm</v>
@@ -7133,7 +7142,7 @@
         <v>8.49</v>
       </c>
       <c r="G193" t="str">
-        <v>PEROLA</v>
+        <v>CANDY</v>
       </c>
       <c r="H193" t="str">
         <v>9" - 23cm</v>
@@ -9338,7 +9347,7 @@
         <v>11.99</v>
       </c>
       <c r="G256" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H256" t="str">
         <v>16" - 41cm</v>
@@ -9373,7 +9382,7 @@
         <v>11.99</v>
       </c>
       <c r="G257" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H257" t="str">
         <v>16" - 41cm</v>
@@ -9408,7 +9417,7 @@
         <v>11.99</v>
       </c>
       <c r="G258" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H258" t="str">
         <v>16" - 41cm</v>
@@ -9443,7 +9452,7 @@
         <v>11.99</v>
       </c>
       <c r="G259" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H259" t="str">
         <v>16" - 41cm</v>
@@ -9863,7 +9872,7 @@
         <v>11.99</v>
       </c>
       <c r="G271" t="str">
-        <v>LISO</v>
+        <v>CANDY</v>
       </c>
       <c r="H271" t="str">
         <v>16" - 41cm</v>
@@ -9988,34 +9997,34 @@
         <v/>
       </c>
       <c r="B275" t="str">
-        <v>00000000008653</v>
+        <v>00000000003705</v>
       </c>
       <c r="C275" t="str">
-        <v>000000000086531</v>
+        <v>000000000037051</v>
       </c>
       <c r="D275" t="str">
         <v>tamanho</v>
       </c>
       <c r="E275" t="str">
-        <v>12 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F275" t="str">
-        <v>15.99</v>
+        <v>5.99</v>
       </c>
       <c r="G275" t="str">
-        <v>PEROLA</v>
+        <v>LISO</v>
       </c>
       <c r="H275" t="str">
-        <v>16" - 41cm</v>
+        <v>150"</v>
       </c>
       <c r="I275" t="str">
-        <v>AMARELO CANDY</v>
+        <v>Vermelho</v>
       </c>
       <c r="J275">
         <v>10</v>
       </c>
       <c r="K275" t="str">
-        <v>07896968318560</v>
+        <v>07896968302699</v>
       </c>
     </row>
     <row r="276">
@@ -10023,34 +10032,34 @@
         <v/>
       </c>
       <c r="B276" t="str">
-        <v>00000000008654</v>
+        <v>00000000003710</v>
       </c>
       <c r="C276" t="str">
-        <v>000000000086541</v>
+        <v>000000000046211</v>
       </c>
       <c r="D276" t="str">
         <v>tamanho</v>
       </c>
       <c r="E276" t="str">
-        <v>12 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F276" t="str">
-        <v>15.99</v>
+        <v>5.26</v>
       </c>
       <c r="G276" t="str">
-        <v>PEROLA</v>
+        <v>LISO</v>
       </c>
       <c r="H276" t="str">
-        <v>16" - 41cm</v>
+        <v>150"</v>
       </c>
       <c r="I276" t="str">
-        <v>AZUL CANDY</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J276">
         <v>10</v>
       </c>
       <c r="K276" t="str">
-        <v>07896968318577</v>
+        <v>07896968315613</v>
       </c>
     </row>
     <row r="277">
@@ -10058,34 +10067,34 @@
         <v/>
       </c>
       <c r="B277" t="str">
-        <v>00000000008655</v>
+        <v>00000000003706</v>
       </c>
       <c r="C277" t="str">
-        <v>000000000086551</v>
+        <v>000000000047891</v>
       </c>
       <c r="D277" t="str">
         <v>tamanho</v>
       </c>
       <c r="E277" t="str">
-        <v>12 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F277" t="str">
-        <v>15.99</v>
+        <v>14.21</v>
       </c>
       <c r="G277" t="str">
-        <v>PEROLA</v>
+        <v>LISO</v>
       </c>
       <c r="H277" t="str">
-        <v>16" - 41cm</v>
+        <v>250"</v>
       </c>
       <c r="I277" t="str">
-        <v>LARANJA CANDY</v>
+        <v>Amarelo</v>
       </c>
       <c r="J277">
         <v>10</v>
       </c>
       <c r="K277" t="str">
-        <v>07896968318591</v>
+        <v>07896968301579</v>
       </c>
     </row>
     <row r="278">
@@ -10093,34 +10102,34 @@
         <v/>
       </c>
       <c r="B278" t="str">
-        <v>00000000008656</v>
+        <v>00000000003708</v>
       </c>
       <c r="C278" t="str">
-        <v>000000000086561</v>
+        <v>000000000047911</v>
       </c>
       <c r="D278" t="str">
         <v>tamanho</v>
       </c>
       <c r="E278" t="str">
-        <v>12 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F278" t="str">
-        <v>15.99</v>
+        <v>4.21</v>
       </c>
       <c r="G278" t="str">
-        <v>PEROLA</v>
+        <v>LISO</v>
       </c>
       <c r="H278" t="str">
-        <v>16" - 41cm</v>
+        <v>250"</v>
       </c>
       <c r="I278" t="str">
-        <v>ROSA CANDY</v>
+        <v>Branco</v>
       </c>
       <c r="J278">
         <v>10</v>
       </c>
       <c r="K278" t="str">
-        <v>07896968318584</v>
+        <v>07896968301593</v>
       </c>
     </row>
     <row r="279">
@@ -10128,34 +10137,34 @@
         <v/>
       </c>
       <c r="B279" t="str">
-        <v>00000000008658</v>
+        <v>00000000003707</v>
       </c>
       <c r="C279" t="str">
-        <v>000000000086581</v>
+        <v>000000000047921</v>
       </c>
       <c r="D279" t="str">
         <v>tamanho</v>
       </c>
       <c r="E279" t="str">
-        <v>12 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F279" t="str">
-        <v>15.99</v>
+        <v>4.21</v>
       </c>
       <c r="G279" t="str">
-        <v>PEROLA</v>
+        <v>LISO</v>
       </c>
       <c r="H279" t="str">
-        <v>16" - 41cm</v>
+        <v>250"</v>
       </c>
       <c r="I279" t="str">
-        <v>verde CANDY</v>
+        <v>Azul Claro</v>
       </c>
       <c r="J279">
         <v>10</v>
       </c>
       <c r="K279" t="str">
-        <v>07896968318614</v>
+        <v>07896968311912</v>
       </c>
     </row>
     <row r="280">
@@ -10163,10 +10172,10 @@
         <v/>
       </c>
       <c r="B280" t="str">
-        <v>00000000003705</v>
+        <v>00000000004793</v>
       </c>
       <c r="C280" t="str">
-        <v>000000000037051</v>
+        <v>000000000047931</v>
       </c>
       <c r="D280" t="str">
         <v>tamanho</v>
@@ -10175,22 +10184,22 @@
         <v>1 UNIDADE</v>
       </c>
       <c r="F280" t="str">
-        <v>5.99</v>
+        <v>4.21</v>
       </c>
       <c r="G280" t="str">
         <v>LISO</v>
       </c>
       <c r="H280" t="str">
-        <v>150"</v>
+        <v>250"</v>
       </c>
       <c r="I280" t="str">
-        <v>Vermelho</v>
+        <v>Azul Escuro</v>
       </c>
       <c r="J280">
         <v>10</v>
       </c>
       <c r="K280" t="str">
-        <v>07896968302699</v>
+        <v>07896968316085</v>
       </c>
     </row>
     <row r="281">
@@ -10198,10 +10207,10 @@
         <v/>
       </c>
       <c r="B281" t="str">
-        <v>00000000003710</v>
+        <v>00000000004794</v>
       </c>
       <c r="C281" t="str">
-        <v>000000000046211</v>
+        <v>000000000047941</v>
       </c>
       <c r="D281" t="str">
         <v>tamanho</v>
@@ -10210,22 +10219,22 @@
         <v>1 UNIDADE</v>
       </c>
       <c r="F281" t="str">
-        <v>5.26</v>
+        <v>4.21</v>
       </c>
       <c r="G281" t="str">
         <v>LISO</v>
       </c>
       <c r="H281" t="str">
-        <v>150"</v>
+        <v>250"</v>
       </c>
       <c r="I281" t="str">
-        <v>Rosa Baby</v>
+        <v>Azul</v>
       </c>
       <c r="J281">
         <v>10</v>
       </c>
       <c r="K281" t="str">
-        <v>07896968315613</v>
+        <v>07896968301586</v>
       </c>
     </row>
     <row r="282">
@@ -10233,10 +10242,10 @@
         <v/>
       </c>
       <c r="B282" t="str">
-        <v>00000000003706</v>
+        <v>00000000004795</v>
       </c>
       <c r="C282" t="str">
-        <v>000000000047891</v>
+        <v>000000000047951</v>
       </c>
       <c r="D282" t="str">
         <v>tamanho</v>
@@ -10245,7 +10254,7 @@
         <v>1 UNIDADE</v>
       </c>
       <c r="F282" t="str">
-        <v>14.21</v>
+        <v>4.21</v>
       </c>
       <c r="G282" t="str">
         <v>LISO</v>
@@ -10254,13 +10263,13 @@
         <v>250"</v>
       </c>
       <c r="I282" t="str">
-        <v>Amarelo</v>
+        <v>Lilás</v>
       </c>
       <c r="J282">
         <v>10</v>
       </c>
       <c r="K282" t="str">
-        <v>07896968301579</v>
+        <v>07896968302026</v>
       </c>
     </row>
     <row r="283">
@@ -10268,10 +10277,10 @@
         <v/>
       </c>
       <c r="B283" t="str">
-        <v>00000000003708</v>
+        <v>00000000004796</v>
       </c>
       <c r="C283" t="str">
-        <v>000000000047911</v>
+        <v>000000000047961</v>
       </c>
       <c r="D283" t="str">
         <v>tamanho</v>
@@ -10289,13 +10298,13 @@
         <v>250"</v>
       </c>
       <c r="I283" t="str">
-        <v>Branco</v>
+        <v>Laranja</v>
       </c>
       <c r="J283">
         <v>10</v>
       </c>
       <c r="K283" t="str">
-        <v>07896968301593</v>
+        <v>07896968301609</v>
       </c>
     </row>
     <row r="284">
@@ -10303,10 +10312,10 @@
         <v/>
       </c>
       <c r="B284" t="str">
-        <v>00000000003707</v>
+        <v>00000000003710</v>
       </c>
       <c r="C284" t="str">
-        <v>000000000047921</v>
+        <v>000000000047971</v>
       </c>
       <c r="D284" t="str">
         <v>tamanho</v>
@@ -10324,13 +10333,13 @@
         <v>250"</v>
       </c>
       <c r="I284" t="str">
-        <v>Azul Claro</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J284">
         <v>10</v>
       </c>
       <c r="K284" t="str">
-        <v>07896968311912</v>
+        <v>07896968311929</v>
       </c>
     </row>
     <row r="285">
@@ -10338,10 +10347,10 @@
         <v/>
       </c>
       <c r="B285" t="str">
-        <v>00000000004793</v>
+        <v>00000000002817</v>
       </c>
       <c r="C285" t="str">
-        <v>000000000047931</v>
+        <v>000000000047981</v>
       </c>
       <c r="D285" t="str">
         <v>tamanho</v>
@@ -10359,13 +10368,13 @@
         <v>250"</v>
       </c>
       <c r="I285" t="str">
-        <v>Azul Escuro</v>
+        <v>Preto</v>
       </c>
       <c r="J285">
         <v>10</v>
       </c>
       <c r="K285" t="str">
-        <v>07896968316085</v>
+        <v>07896968301654</v>
       </c>
     </row>
     <row r="286">
@@ -10373,10 +10382,10 @@
         <v/>
       </c>
       <c r="B286" t="str">
-        <v>00000000004794</v>
+        <v>00000000003705</v>
       </c>
       <c r="C286" t="str">
-        <v>000000000047941</v>
+        <v>000000000047991</v>
       </c>
       <c r="D286" t="str">
         <v>tamanho</v>
@@ -10394,13 +10403,13 @@
         <v>250"</v>
       </c>
       <c r="I286" t="str">
-        <v>Azul</v>
+        <v>Vermelho</v>
       </c>
       <c r="J286">
         <v>10</v>
       </c>
       <c r="K286" t="str">
-        <v>07896968301586</v>
+        <v>07896968301630</v>
       </c>
     </row>
     <row r="287">
@@ -10408,10 +10417,10 @@
         <v/>
       </c>
       <c r="B287" t="str">
-        <v>00000000004795</v>
+        <v>00000000004800</v>
       </c>
       <c r="C287" t="str">
-        <v>000000000047951</v>
+        <v>000000000048001</v>
       </c>
       <c r="D287" t="str">
         <v>tamanho</v>
@@ -10429,13 +10438,13 @@
         <v>250"</v>
       </c>
       <c r="I287" t="str">
-        <v>Lilás</v>
+        <v>Azul Turquesa</v>
       </c>
       <c r="J287">
         <v>10</v>
       </c>
       <c r="K287" t="str">
-        <v>07896968302026</v>
+        <v>07896968315873</v>
       </c>
     </row>
     <row r="288">
@@ -10443,10 +10452,10 @@
         <v/>
       </c>
       <c r="B288" t="str">
-        <v>00000000004796</v>
+        <v>00000000004801</v>
       </c>
       <c r="C288" t="str">
-        <v>000000000047961</v>
+        <v>000000000048011</v>
       </c>
       <c r="D288" t="str">
         <v>tamanho</v>
@@ -10464,13 +10473,13 @@
         <v>250"</v>
       </c>
       <c r="I288" t="str">
-        <v>Laranja</v>
+        <v>CLEAR</v>
       </c>
       <c r="J288">
         <v>10</v>
       </c>
       <c r="K288" t="str">
-        <v>07896968301609</v>
+        <v>07896968300220</v>
       </c>
     </row>
     <row r="289">
@@ -10478,10 +10487,10 @@
         <v/>
       </c>
       <c r="B289" t="str">
-        <v>00000000003710</v>
+        <v>00000000004802</v>
       </c>
       <c r="C289" t="str">
-        <v>000000000047971</v>
+        <v>000000000048021</v>
       </c>
       <c r="D289" t="str">
         <v>tamanho</v>
@@ -10499,13 +10508,13 @@
         <v>250"</v>
       </c>
       <c r="I289" t="str">
-        <v>Rosa Baby</v>
+        <v>Marrom</v>
       </c>
       <c r="J289">
         <v>10</v>
       </c>
       <c r="K289" t="str">
-        <v>07896968311929</v>
+        <v>07896968315668</v>
       </c>
     </row>
     <row r="290">
@@ -10513,10 +10522,10 @@
         <v/>
       </c>
       <c r="B290" t="str">
-        <v>00000000002817</v>
+        <v>00000000004803</v>
       </c>
       <c r="C290" t="str">
-        <v>000000000047981</v>
+        <v>000000000048031</v>
       </c>
       <c r="D290" t="str">
         <v>tamanho</v>
@@ -10534,13 +10543,13 @@
         <v>250"</v>
       </c>
       <c r="I290" t="str">
-        <v>Preto</v>
+        <v>Verde LimAO</v>
       </c>
       <c r="J290">
         <v>10</v>
       </c>
       <c r="K290" t="str">
-        <v>07896968301654</v>
+        <v>07896968302095</v>
       </c>
     </row>
     <row r="291">
@@ -10548,10 +10557,10 @@
         <v/>
       </c>
       <c r="B291" t="str">
-        <v>00000000003705</v>
+        <v>00000000004804</v>
       </c>
       <c r="C291" t="str">
-        <v>000000000047991</v>
+        <v>000000000048041</v>
       </c>
       <c r="D291" t="str">
         <v>tamanho</v>
@@ -10569,13 +10578,13 @@
         <v>250"</v>
       </c>
       <c r="I291" t="str">
-        <v>Vermelho</v>
+        <v>Rosa Forte</v>
       </c>
       <c r="J291">
         <v>10</v>
       </c>
       <c r="K291" t="str">
-        <v>07896968301630</v>
+        <v>07896968301616</v>
       </c>
     </row>
     <row r="292">
@@ -10583,10 +10592,10 @@
         <v/>
       </c>
       <c r="B292" t="str">
-        <v>00000000004800</v>
+        <v>00000000004806</v>
       </c>
       <c r="C292" t="str">
-        <v>000000000048001</v>
+        <v>000000000048061</v>
       </c>
       <c r="D292" t="str">
         <v>tamanho</v>
@@ -10604,13 +10613,13 @@
         <v>250"</v>
       </c>
       <c r="I292" t="str">
-        <v>Azul Turquesa</v>
+        <v>Marfim</v>
       </c>
       <c r="J292">
         <v>10</v>
       </c>
       <c r="K292" t="str">
-        <v>07896968315873</v>
+        <v>07896968309452</v>
       </c>
     </row>
     <row r="293">
@@ -10618,10 +10627,10 @@
         <v/>
       </c>
       <c r="B293" t="str">
-        <v>00000000004801</v>
+        <v>00000000004807</v>
       </c>
       <c r="C293" t="str">
-        <v>000000000048011</v>
+        <v>000000000048071</v>
       </c>
       <c r="D293" t="str">
         <v>tamanho</v>
@@ -10639,13 +10648,13 @@
         <v>250"</v>
       </c>
       <c r="I293" t="str">
-        <v>CLEAR</v>
+        <v>Verde</v>
       </c>
       <c r="J293">
         <v>10</v>
       </c>
       <c r="K293" t="str">
-        <v>07896968300220</v>
+        <v>07896968316306</v>
       </c>
     </row>
     <row r="294">
@@ -10653,10 +10662,10 @@
         <v/>
       </c>
       <c r="B294" t="str">
-        <v>00000000004802</v>
+        <v>00000000004809</v>
       </c>
       <c r="C294" t="str">
-        <v>000000000048021</v>
+        <v>000000000048091</v>
       </c>
       <c r="D294" t="str">
         <v>tamanho</v>
@@ -10674,13 +10683,13 @@
         <v>250"</v>
       </c>
       <c r="I294" t="str">
-        <v>Marrom</v>
+        <v>SKIN</v>
       </c>
       <c r="J294">
         <v>10</v>
       </c>
       <c r="K294" t="str">
-        <v>07896968315668</v>
+        <v>07896968303658</v>
       </c>
     </row>
     <row r="295">
@@ -10688,34 +10697,34 @@
         <v/>
       </c>
       <c r="B295" t="str">
-        <v>00000000004803</v>
+        <v>00000000002183</v>
       </c>
       <c r="C295" t="str">
-        <v>000000000048031</v>
+        <v>000000000021831</v>
       </c>
       <c r="D295" t="str">
         <v>tamanho</v>
       </c>
       <c r="E295" t="str">
-        <v>1 UNIDADE</v>
+        <v>25 UNIDADES</v>
       </c>
       <c r="F295" t="str">
-        <v>4.21</v>
+        <v>10.53</v>
       </c>
       <c r="G295" t="str">
-        <v>LISO</v>
+        <v>PLATINO</v>
       </c>
       <c r="H295" t="str">
-        <v>250"</v>
+        <v>260"</v>
       </c>
       <c r="I295" t="str">
-        <v>Verde LimAO</v>
+        <v>Ouro</v>
       </c>
       <c r="J295">
         <v>10</v>
       </c>
       <c r="K295" t="str">
-        <v>07896968302095</v>
+        <v>07896968300015</v>
       </c>
     </row>
     <row r="296">
@@ -10723,34 +10732,34 @@
         <v/>
       </c>
       <c r="B296" t="str">
-        <v>00000000004804</v>
+        <v>00000000002184</v>
       </c>
       <c r="C296" t="str">
-        <v>000000000048041</v>
+        <v>000000000021841</v>
       </c>
       <c r="D296" t="str">
         <v>tamanho</v>
       </c>
       <c r="E296" t="str">
-        <v>1 UNIDADE</v>
+        <v>25 UNIDADES</v>
       </c>
       <c r="F296" t="str">
-        <v>4.21</v>
+        <v>10.53</v>
       </c>
       <c r="G296" t="str">
-        <v>LISO</v>
+        <v>PLATINO</v>
       </c>
       <c r="H296" t="str">
-        <v>250"</v>
+        <v>260"</v>
       </c>
       <c r="I296" t="str">
-        <v>Rosa Forte</v>
+        <v>Prata</v>
       </c>
       <c r="J296">
         <v>10</v>
       </c>
       <c r="K296" t="str">
-        <v>07896968301616</v>
+        <v>07896968300008</v>
       </c>
     </row>
     <row r="297">
@@ -10758,34 +10767,34 @@
         <v/>
       </c>
       <c r="B297" t="str">
-        <v>00000000004806</v>
+        <v>00000000002185</v>
       </c>
       <c r="C297" t="str">
-        <v>000000000048061</v>
+        <v>000000000021851</v>
       </c>
       <c r="D297" t="str">
         <v>tamanho</v>
       </c>
       <c r="E297" t="str">
-        <v>1 UNIDADE</v>
+        <v>25 UNIDADES</v>
       </c>
       <c r="F297" t="str">
-        <v>4.21</v>
+        <v>10.53</v>
       </c>
       <c r="G297" t="str">
-        <v>LISO</v>
+        <v>PLATINO</v>
       </c>
       <c r="H297" t="str">
-        <v>250"</v>
+        <v>260"</v>
       </c>
       <c r="I297" t="str">
-        <v>Marfim</v>
+        <v>Sortido</v>
       </c>
       <c r="J297">
         <v>10</v>
       </c>
       <c r="K297" t="str">
-        <v>07896968309452</v>
+        <v>07896968315637</v>
       </c>
     </row>
     <row r="298">
@@ -10793,34 +10802,34 @@
         <v/>
       </c>
       <c r="B298" t="str">
-        <v>00000000004807</v>
+        <v>00000000002178</v>
       </c>
       <c r="C298" t="str">
-        <v>000000000048071</v>
+        <v>000000000035721</v>
       </c>
       <c r="D298" t="str">
         <v>tamanho</v>
       </c>
       <c r="E298" t="str">
-        <v>1 UNIDADE</v>
+        <v>50 UNIDADES</v>
       </c>
       <c r="F298" t="str">
-        <v>4.21</v>
+        <v>9.74</v>
       </c>
       <c r="G298" t="str">
         <v>LISO</v>
       </c>
       <c r="H298" t="str">
-        <v>250"</v>
+        <v>260"</v>
       </c>
       <c r="I298" t="str">
-        <v>Verde</v>
+        <v>Sortido</v>
       </c>
       <c r="J298">
         <v>10</v>
       </c>
       <c r="K298" t="str">
-        <v>07896968316306</v>
+        <v>07896968301173</v>
       </c>
     </row>
     <row r="299">
@@ -10828,34 +10837,34 @@
         <v/>
       </c>
       <c r="B299" t="str">
-        <v>00000000004809</v>
+        <v>00000000003043</v>
       </c>
       <c r="C299" t="str">
-        <v>000000000048091</v>
+        <v>000000000035781</v>
       </c>
       <c r="D299" t="str">
         <v>tamanho</v>
       </c>
       <c r="E299" t="str">
-        <v>1 UNIDADE</v>
+        <v>50 UNIDADES</v>
       </c>
       <c r="F299" t="str">
-        <v>4.21</v>
+        <v>10.99</v>
       </c>
       <c r="G299" t="str">
-        <v>LISO</v>
+        <v>NEON</v>
       </c>
       <c r="H299" t="str">
-        <v>250"</v>
+        <v>260"</v>
       </c>
       <c r="I299" t="str">
-        <v>SKIN</v>
+        <v>Sortido</v>
       </c>
       <c r="J299">
         <v>10</v>
       </c>
       <c r="K299" t="str">
-        <v>07896968303658</v>
+        <v>07896968301050</v>
       </c>
     </row>
     <row r="300">
@@ -10863,10 +10872,10 @@
         <v/>
       </c>
       <c r="B300" t="str">
-        <v>00000000002183</v>
+        <v>00000000004106</v>
       </c>
       <c r="C300" t="str">
-        <v>000000000021831</v>
+        <v>000000000041061</v>
       </c>
       <c r="D300" t="str">
         <v>tamanho</v>
@@ -10875,22 +10884,22 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F300" t="str">
-        <v>10.53</v>
+        <v>5.79</v>
       </c>
       <c r="G300" t="str">
-        <v>PLATINO</v>
+        <v>NEON</v>
       </c>
       <c r="H300" t="str">
         <v>260"</v>
       </c>
       <c r="I300" t="str">
-        <v>Ouro</v>
+        <v>Sortido</v>
       </c>
       <c r="J300">
         <v>10</v>
       </c>
       <c r="K300" t="str">
-        <v>07896968300015</v>
+        <v>07896968317013</v>
       </c>
     </row>
     <row r="301">
@@ -10898,10 +10907,10 @@
         <v/>
       </c>
       <c r="B301" t="str">
-        <v>00000000002184</v>
+        <v>00000000004777</v>
       </c>
       <c r="C301" t="str">
-        <v>000000000021841</v>
+        <v>000000000047771</v>
       </c>
       <c r="D301" t="str">
         <v>tamanho</v>
@@ -10910,22 +10919,22 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F301" t="str">
-        <v>10.53</v>
+        <v>5.79</v>
       </c>
       <c r="G301" t="str">
-        <v>PLATINO</v>
+        <v>LISO</v>
       </c>
       <c r="H301" t="str">
         <v>260"</v>
       </c>
       <c r="I301" t="str">
-        <v>Prata</v>
+        <v>Laranja</v>
       </c>
       <c r="J301">
         <v>10</v>
       </c>
       <c r="K301" t="str">
-        <v>07896968300008</v>
+        <v>07896968306307</v>
       </c>
     </row>
     <row r="302">
@@ -10933,10 +10942,10 @@
         <v/>
       </c>
       <c r="B302" t="str">
-        <v>00000000002185</v>
+        <v>00000000002811</v>
       </c>
       <c r="C302" t="str">
-        <v>000000000021851</v>
+        <v>000000000048051</v>
       </c>
       <c r="D302" t="str">
         <v>tamanho</v>
@@ -10945,22 +10954,22 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F302" t="str">
-        <v>10.53</v>
+        <v>5.79</v>
       </c>
       <c r="G302" t="str">
-        <v>PLATINO</v>
+        <v>LISO</v>
       </c>
       <c r="H302" t="str">
         <v>260"</v>
       </c>
       <c r="I302" t="str">
-        <v>Sortido</v>
+        <v>Preto</v>
       </c>
       <c r="J302">
         <v>10</v>
       </c>
       <c r="K302" t="str">
-        <v>07896968315637</v>
+        <v>07896968300084</v>
       </c>
     </row>
     <row r="303">
@@ -10968,19 +10977,19 @@
         <v/>
       </c>
       <c r="B303" t="str">
-        <v>00000000002178</v>
+        <v>00000000002812</v>
       </c>
       <c r="C303" t="str">
-        <v>000000000035721</v>
+        <v>000000000048081</v>
       </c>
       <c r="D303" t="str">
         <v>tamanho</v>
       </c>
       <c r="E303" t="str">
-        <v>50 UNIDADES</v>
+        <v>25 UNIDADES</v>
       </c>
       <c r="F303" t="str">
-        <v>9.74</v>
+        <v>5.79</v>
       </c>
       <c r="G303" t="str">
         <v>LISO</v>
@@ -10989,13 +10998,13 @@
         <v>260"</v>
       </c>
       <c r="I303" t="str">
-        <v>Sortido</v>
+        <v>Azul Claro</v>
       </c>
       <c r="J303">
         <v>10</v>
       </c>
       <c r="K303" t="str">
-        <v>07896968301173</v>
+        <v>07896968303498</v>
       </c>
     </row>
     <row r="304">
@@ -11003,34 +11012,34 @@
         <v/>
       </c>
       <c r="B304" t="str">
-        <v>00000000003043</v>
+        <v>00000000004810</v>
       </c>
       <c r="C304" t="str">
-        <v>000000000035781</v>
+        <v>000000000048101</v>
       </c>
       <c r="D304" t="str">
         <v>tamanho</v>
       </c>
       <c r="E304" t="str">
-        <v>50 UNIDADES</v>
+        <v>25 UNIDADES</v>
       </c>
       <c r="F304" t="str">
-        <v>10.99</v>
+        <v>5.79</v>
       </c>
       <c r="G304" t="str">
-        <v>NEON</v>
+        <v>LISO</v>
       </c>
       <c r="H304" t="str">
         <v>260"</v>
       </c>
       <c r="I304" t="str">
-        <v>Sortido</v>
+        <v>Branco</v>
       </c>
       <c r="J304">
         <v>10</v>
       </c>
       <c r="K304" t="str">
-        <v>07896968301050</v>
+        <v>07896968306291</v>
       </c>
     </row>
     <row r="305">
@@ -11038,10 +11047,10 @@
         <v/>
       </c>
       <c r="B305" t="str">
-        <v>00000000004106</v>
+        <v>00000000004811</v>
       </c>
       <c r="C305" t="str">
-        <v>000000000041061</v>
+        <v>000000000048111</v>
       </c>
       <c r="D305" t="str">
         <v>tamanho</v>
@@ -11053,19 +11062,19 @@
         <v>5.79</v>
       </c>
       <c r="G305" t="str">
-        <v>NEON</v>
+        <v>LISO</v>
       </c>
       <c r="H305" t="str">
         <v>260"</v>
       </c>
       <c r="I305" t="str">
-        <v>Sortido</v>
+        <v>Amarelo</v>
       </c>
       <c r="J305">
         <v>10</v>
       </c>
       <c r="K305" t="str">
-        <v>07896968317013</v>
+        <v>07896968306277</v>
       </c>
     </row>
     <row r="306">
@@ -11073,10 +11082,10 @@
         <v/>
       </c>
       <c r="B306" t="str">
-        <v>00000000004777</v>
+        <v>00000000004812</v>
       </c>
       <c r="C306" t="str">
-        <v>000000000047771</v>
+        <v>000000000048121</v>
       </c>
       <c r="D306" t="str">
         <v>tamanho</v>
@@ -11094,13 +11103,13 @@
         <v>260"</v>
       </c>
       <c r="I306" t="str">
-        <v>Laranja</v>
+        <v>Marrom</v>
       </c>
       <c r="J306">
         <v>10</v>
       </c>
       <c r="K306" t="str">
-        <v>07896968306307</v>
+        <v>07896968300077</v>
       </c>
     </row>
     <row r="307">
@@ -11108,10 +11117,10 @@
         <v/>
       </c>
       <c r="B307" t="str">
-        <v>00000000002811</v>
+        <v>00000000003573</v>
       </c>
       <c r="C307" t="str">
-        <v>000000000048051</v>
+        <v>000000000048131</v>
       </c>
       <c r="D307" t="str">
         <v>tamanho</v>
@@ -11129,13 +11138,13 @@
         <v>260"</v>
       </c>
       <c r="I307" t="str">
-        <v>Preto</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J307">
         <v>10</v>
       </c>
       <c r="K307" t="str">
-        <v>07896968300084</v>
+        <v>07896968303504</v>
       </c>
     </row>
     <row r="308">
@@ -11143,10 +11152,10 @@
         <v/>
       </c>
       <c r="B308" t="str">
-        <v>00000000002812</v>
+        <v>00000000004814</v>
       </c>
       <c r="C308" t="str">
-        <v>000000000048081</v>
+        <v>000000000048141</v>
       </c>
       <c r="D308" t="str">
         <v>tamanho</v>
@@ -11164,13 +11173,13 @@
         <v>260"</v>
       </c>
       <c r="I308" t="str">
-        <v>Azul Claro</v>
+        <v>Azul</v>
       </c>
       <c r="J308">
         <v>10</v>
       </c>
       <c r="K308" t="str">
-        <v>07896968303498</v>
+        <v>07896968306284</v>
       </c>
     </row>
     <row r="309">
@@ -11178,10 +11187,10 @@
         <v/>
       </c>
       <c r="B309" t="str">
-        <v>00000000004810</v>
+        <v>00000000004815</v>
       </c>
       <c r="C309" t="str">
-        <v>000000000048101</v>
+        <v>000000000048151</v>
       </c>
       <c r="D309" t="str">
         <v>tamanho</v>
@@ -11199,13 +11208,13 @@
         <v>260"</v>
       </c>
       <c r="I309" t="str">
-        <v>Branco</v>
+        <v>Verde LimAO</v>
       </c>
       <c r="J309">
         <v>10</v>
       </c>
       <c r="K309" t="str">
-        <v>07896968306291</v>
+        <v>07896968302323</v>
       </c>
     </row>
     <row r="310">
@@ -11213,10 +11222,10 @@
         <v/>
       </c>
       <c r="B310" t="str">
-        <v>00000000004811</v>
+        <v>00000000002180</v>
       </c>
       <c r="C310" t="str">
-        <v>000000000048111</v>
+        <v>000000000048161</v>
       </c>
       <c r="D310" t="str">
         <v>tamanho</v>
@@ -11234,13 +11243,13 @@
         <v>260"</v>
       </c>
       <c r="I310" t="str">
-        <v>Amarelo</v>
+        <v>Vermelho</v>
       </c>
       <c r="J310">
         <v>10</v>
       </c>
       <c r="K310" t="str">
-        <v>07896968306277</v>
+        <v>07896968306345</v>
       </c>
     </row>
     <row r="311">
@@ -11248,10 +11257,10 @@
         <v/>
       </c>
       <c r="B311" t="str">
-        <v>00000000004812</v>
+        <v>00000000004817</v>
       </c>
       <c r="C311" t="str">
-        <v>000000000048121</v>
+        <v>000000000048171</v>
       </c>
       <c r="D311" t="str">
         <v>tamanho</v>
@@ -11269,13 +11278,13 @@
         <v>260"</v>
       </c>
       <c r="I311" t="str">
-        <v>Marrom</v>
+        <v>Lilás</v>
       </c>
       <c r="J311">
         <v>10</v>
       </c>
       <c r="K311" t="str">
-        <v>07896968300077</v>
+        <v>07896968302316</v>
       </c>
     </row>
     <row r="312">
@@ -11283,10 +11292,10 @@
         <v/>
       </c>
       <c r="B312" t="str">
-        <v>00000000003573</v>
+        <v>00000000002816</v>
       </c>
       <c r="C312" t="str">
-        <v>000000000048131</v>
+        <v>000000000048181</v>
       </c>
       <c r="D312" t="str">
         <v>tamanho</v>
@@ -11304,13 +11313,13 @@
         <v>260"</v>
       </c>
       <c r="I312" t="str">
-        <v>Rosa Baby</v>
+        <v>Rosa Forte</v>
       </c>
       <c r="J312">
         <v>10</v>
       </c>
       <c r="K312" t="str">
-        <v>07896968303504</v>
+        <v>07896968306314</v>
       </c>
     </row>
     <row r="313">
@@ -11318,10 +11327,10 @@
         <v/>
       </c>
       <c r="B313" t="str">
-        <v>00000000004814</v>
+        <v>00000000002819</v>
       </c>
       <c r="C313" t="str">
-        <v>000000000048141</v>
+        <v>000000000048191</v>
       </c>
       <c r="D313" t="str">
         <v>tamanho</v>
@@ -11339,13 +11348,13 @@
         <v>260"</v>
       </c>
       <c r="I313" t="str">
-        <v>Azul</v>
+        <v>Sortido</v>
       </c>
       <c r="J313">
         <v>10</v>
       </c>
       <c r="K313" t="str">
-        <v>07896968306284</v>
+        <v>07896968303528</v>
       </c>
     </row>
     <row r="314">
@@ -11353,10 +11362,10 @@
         <v/>
       </c>
       <c r="B314" t="str">
-        <v>00000000004815</v>
+        <v>00000000004820</v>
       </c>
       <c r="C314" t="str">
-        <v>000000000048151</v>
+        <v>000000000048201</v>
       </c>
       <c r="D314" t="str">
         <v>tamanho</v>
@@ -11374,13 +11383,13 @@
         <v>260"</v>
       </c>
       <c r="I314" t="str">
-        <v>Verde LimAO</v>
+        <v>Verde</v>
       </c>
       <c r="J314">
         <v>10</v>
       </c>
       <c r="K314" t="str">
-        <v>07896968302323</v>
+        <v>07896968316313</v>
       </c>
     </row>
     <row r="315">
@@ -11388,10 +11397,10 @@
         <v/>
       </c>
       <c r="B315" t="str">
-        <v>00000000002180</v>
+        <v>00000000003582</v>
       </c>
       <c r="C315" t="str">
-        <v>000000000048161</v>
+        <v>000000000048881</v>
       </c>
       <c r="D315" t="str">
         <v>tamanho</v>
@@ -11400,10 +11409,10 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F315" t="str">
-        <v>5.79</v>
+        <v>10.53</v>
       </c>
       <c r="G315" t="str">
-        <v>LISO</v>
+        <v>PLATINO</v>
       </c>
       <c r="H315" t="str">
         <v>260"</v>
@@ -11415,7 +11424,7 @@
         <v>10</v>
       </c>
       <c r="K315" t="str">
-        <v>07896968306345</v>
+        <v>07896968300053</v>
       </c>
     </row>
     <row r="316">
@@ -11423,10 +11432,10 @@
         <v/>
       </c>
       <c r="B316" t="str">
-        <v>00000000004817</v>
+        <v>00000000003579</v>
       </c>
       <c r="C316" t="str">
-        <v>000000000048171</v>
+        <v>000000000048891</v>
       </c>
       <c r="D316" t="str">
         <v>tamanho</v>
@@ -11435,22 +11444,22 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F316" t="str">
-        <v>5.79</v>
+        <v>10.53</v>
       </c>
       <c r="G316" t="str">
-        <v>LISO</v>
+        <v>PLATINO</v>
       </c>
       <c r="H316" t="str">
         <v>260"</v>
       </c>
       <c r="I316" t="str">
-        <v>Lilás</v>
+        <v>Azul</v>
       </c>
       <c r="J316">
         <v>10</v>
       </c>
       <c r="K316" t="str">
-        <v>07896968302316</v>
+        <v>07896968315651</v>
       </c>
     </row>
     <row r="317">
@@ -11458,10 +11467,10 @@
         <v/>
       </c>
       <c r="B317" t="str">
-        <v>00000000002816</v>
+        <v>00000000002825</v>
       </c>
       <c r="C317" t="str">
-        <v>000000000048181</v>
+        <v>000000000048911</v>
       </c>
       <c r="D317" t="str">
         <v>tamanho</v>
@@ -11470,22 +11479,22 @@
         <v>25 UNIDADES</v>
       </c>
       <c r="F317" t="str">
-        <v>5.79</v>
+        <v>10.53</v>
       </c>
       <c r="G317" t="str">
-        <v>LISO</v>
+        <v>PLATINO</v>
       </c>
       <c r="H317" t="str">
         <v>260"</v>
       </c>
       <c r="I317" t="str">
-        <v>Rosa Forte</v>
+        <v>ROSE GOLD</v>
       </c>
       <c r="J317">
         <v>10</v>
       </c>
       <c r="K317" t="str">
-        <v>07896968306314</v>
+        <v>07896968300046</v>
       </c>
     </row>
     <row r="318">
@@ -11493,34 +11502,34 @@
         <v/>
       </c>
       <c r="B318" t="str">
-        <v>00000000002819</v>
+        <v>00000000002817</v>
       </c>
       <c r="C318" t="str">
-        <v>000000000048191</v>
+        <v>000000000028171</v>
       </c>
       <c r="D318" t="str">
         <v>tamanho</v>
       </c>
       <c r="E318" t="str">
-        <v>25 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F318" t="str">
-        <v>5.79</v>
+        <v>12.49</v>
       </c>
       <c r="G318" t="str">
         <v>LISO</v>
       </c>
       <c r="H318" t="str">
-        <v>260"</v>
+        <v>350"</v>
       </c>
       <c r="I318" t="str">
-        <v>Sortido</v>
+        <v>Preto</v>
       </c>
       <c r="J318">
         <v>10</v>
       </c>
       <c r="K318" t="str">
-        <v>07896968303528</v>
+        <v>07896968315620</v>
       </c>
     </row>
     <row r="319">
@@ -11528,34 +11537,34 @@
         <v/>
       </c>
       <c r="B319" t="str">
-        <v>00000000004820</v>
+        <v>00000000003706</v>
       </c>
       <c r="C319" t="str">
-        <v>000000000048201</v>
+        <v>000000000037061</v>
       </c>
       <c r="D319" t="str">
         <v>tamanho</v>
       </c>
       <c r="E319" t="str">
-        <v>25 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F319" t="str">
-        <v>5.79</v>
+        <v>10.00</v>
       </c>
       <c r="G319" t="str">
         <v>LISO</v>
       </c>
       <c r="H319" t="str">
-        <v>260"</v>
+        <v>350"</v>
       </c>
       <c r="I319" t="str">
-        <v>Verde</v>
+        <v>Amarelo</v>
       </c>
       <c r="J319">
         <v>10</v>
       </c>
       <c r="K319" t="str">
-        <v>07896968316313</v>
+        <v>07896968300817</v>
       </c>
     </row>
     <row r="320">
@@ -11563,34 +11572,34 @@
         <v/>
       </c>
       <c r="B320" t="str">
-        <v>00000000003582</v>
+        <v>00000000003707</v>
       </c>
       <c r="C320" t="str">
-        <v>000000000048881</v>
+        <v>000000000037071</v>
       </c>
       <c r="D320" t="str">
         <v>tamanho</v>
       </c>
       <c r="E320" t="str">
-        <v>25 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F320" t="str">
-        <v>10.53</v>
+        <v>10.00</v>
       </c>
       <c r="G320" t="str">
-        <v>PLATINO</v>
+        <v>LISO</v>
       </c>
       <c r="H320" t="str">
-        <v>260"</v>
+        <v>350"</v>
       </c>
       <c r="I320" t="str">
-        <v>Vermelho</v>
+        <v>Azul Claro</v>
       </c>
       <c r="J320">
         <v>10</v>
       </c>
       <c r="K320" t="str">
-        <v>07896968300053</v>
+        <v>07896968301197</v>
       </c>
     </row>
     <row r="321">
@@ -11598,34 +11607,34 @@
         <v/>
       </c>
       <c r="B321" t="str">
-        <v>00000000003579</v>
+        <v>00000000003708</v>
       </c>
       <c r="C321" t="str">
-        <v>000000000048891</v>
+        <v>000000000037081</v>
       </c>
       <c r="D321" t="str">
         <v>tamanho</v>
       </c>
       <c r="E321" t="str">
-        <v>25 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F321" t="str">
-        <v>10.53</v>
+        <v>10.99</v>
       </c>
       <c r="G321" t="str">
-        <v>PLATINO</v>
+        <v>LISO</v>
       </c>
       <c r="H321" t="str">
-        <v>260"</v>
+        <v>350"</v>
       </c>
       <c r="I321" t="str">
-        <v>Azul</v>
+        <v>Branco</v>
       </c>
       <c r="J321">
         <v>10</v>
       </c>
       <c r="K321" t="str">
-        <v>07896968315651</v>
+        <v>07896968300831</v>
       </c>
     </row>
     <row r="322">
@@ -11633,34 +11642,34 @@
         <v/>
       </c>
       <c r="B322" t="str">
-        <v>00000000002825</v>
+        <v>00000000003710</v>
       </c>
       <c r="C322" t="str">
-        <v>000000000048911</v>
+        <v>000000000037101</v>
       </c>
       <c r="D322" t="str">
         <v>tamanho</v>
       </c>
       <c r="E322" t="str">
-        <v>25 UNIDADES</v>
+        <v>1 UNIDADE</v>
       </c>
       <c r="F322" t="str">
-        <v>10.53</v>
+        <v>10.00</v>
       </c>
       <c r="G322" t="str">
-        <v>PLATINO</v>
+        <v>LISO</v>
       </c>
       <c r="H322" t="str">
-        <v>260"</v>
+        <v>350"</v>
       </c>
       <c r="I322" t="str">
-        <v>ROSE GOLD</v>
+        <v>Rosa Baby</v>
       </c>
       <c r="J322">
         <v>10</v>
       </c>
       <c r="K322" t="str">
-        <v>07896968300046</v>
+        <v>07896968311950</v>
       </c>
     </row>
     <row r="323">
@@ -11668,10 +11677,10 @@
         <v/>
       </c>
       <c r="B323" t="str">
-        <v>00000000002817</v>
+        <v>00000000003705</v>
       </c>
       <c r="C323" t="str">
-        <v>000000000028171</v>
+        <v>000000000037111</v>
       </c>
       <c r="D323" t="str">
         <v>tamanho</v>
@@ -11680,7 +11689,7 @@
         <v>1 UNIDADE</v>
       </c>
       <c r="F323" t="str">
-        <v>12.49</v>
+        <v>10.00</v>
       </c>
       <c r="G323" t="str">
         <v>LISO</v>
@@ -11689,13 +11698,13 @@
         <v>350"</v>
       </c>
       <c r="I323" t="str">
-        <v>Preto</v>
+        <v>Vermelho</v>
       </c>
       <c r="J323">
         <v>10</v>
       </c>
       <c r="K323" t="str">
-        <v>07896968315620</v>
+        <v>07896968300886</v>
       </c>
     </row>
     <row r="324">
@@ -11703,10 +11712,10 @@
         <v/>
       </c>
       <c r="B324" t="str">
-        <v>00000000003706</v>
+        <v>00000000004796</v>
       </c>
       <c r="C324" t="str">
-        <v>000000000037061</v>
+        <v>000000000048211</v>
       </c>
       <c r="D324" t="str">
         <v>tamanho</v>
@@ -11724,13 +11733,13 @@
         <v>350"</v>
       </c>
       <c r="I324" t="str">
-        <v>Amarelo</v>
+        <v>Laranja</v>
       </c>
       <c r="J324">
         <v>10</v>
       </c>
       <c r="K324" t="str">
-        <v>07896968300817</v>
+        <v>07896968300848</v>
       </c>
     </row>
     <row r="325">
@@ -11738,10 +11747,10 @@
         <v/>
       </c>
       <c r="B325" t="str">
-        <v>00000000003707</v>
+        <v>00000000004794</v>
       </c>
       <c r="C325" t="str">
-        <v>000000000037071</v>
+        <v>000000000048221</v>
       </c>
       <c r="D325" t="str">
         <v>tamanho</v>
@@ -11759,13 +11768,13 @@
         <v>350"</v>
       </c>
       <c r="I325" t="str">
-        <v>Azul Claro</v>
+        <v>Azul</v>
       </c>
       <c r="J325">
         <v>10</v>
       </c>
       <c r="K325" t="str">
-        <v>07896968301197</v>
+        <v>07896968300824</v>
       </c>
     </row>
     <row r="326">
@@ -11773,10 +11782,10 @@
         <v/>
       </c>
       <c r="B326" t="str">
-        <v>00000000003708</v>
+        <v>00000000004804</v>
       </c>
       <c r="C326" t="str">
-        <v>000000000037081</v>
+        <v>000000000048231</v>
       </c>
       <c r="D326" t="str">
         <v>tamanho</v>
@@ -11785,7 +11794,7 @@
         <v>1 UNIDADE</v>
       </c>
       <c r="F326" t="str">
-        <v>10.99</v>
+        <v>10.00</v>
       </c>
       <c r="G326" t="str">
         <v>LISO</v>
@@ -11794,13 +11803,13 @@
         <v>350"</v>
       </c>
       <c r="I326" t="str">
-        <v>Branco</v>
+        <v>Rosa Forte</v>
       </c>
       <c r="J326">
         <v>10</v>
       </c>
       <c r="K326" t="str">
-        <v>07896968300831</v>
+        <v>07896968300855</v>
       </c>
     </row>
     <row r="327">
@@ -11808,10 +11817,10 @@
         <v/>
       </c>
       <c r="B327" t="str">
-        <v>00000000003710</v>
+        <v>00000000004795</v>
       </c>
       <c r="C327" t="str">
-        <v>000000000037101</v>
+        <v>000000000048241</v>
       </c>
       <c r="D327" t="str">
         <v>tamanho</v>
@@ -11829,13 +11838,13 @@
         <v>350"</v>
       </c>
       <c r="I327" t="str">
-        <v>Rosa Baby</v>
+        <v>Lilás</v>
       </c>
       <c r="J327">
         <v>10</v>
       </c>
       <c r="K327" t="str">
-        <v>07896968311950</v>
+        <v>07896968302040</v>
       </c>
     </row>
     <row r="328">
@@ -11843,10 +11852,10 @@
         <v/>
       </c>
       <c r="B328" t="str">
-        <v>00000000003705</v>
+        <v>00000000004807</v>
       </c>
       <c r="C328" t="str">
-        <v>000000000037111</v>
+        <v>000000000048261</v>
       </c>
       <c r="D328" t="str">
         <v>tamanho</v>
@@ -11864,193 +11873,18 @@
         <v>350"</v>
       </c>
       <c r="I328" t="str">
-        <v>Vermelho</v>
+        <v>Verde</v>
       </c>
       <c r="J328">
         <v>10</v>
       </c>
       <c r="K328" t="str">
-        <v>07896968300886</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="str">
-        <v/>
-      </c>
-      <c r="B329" t="str">
-        <v>00000000004796</v>
-      </c>
-      <c r="C329" t="str">
-        <v>000000000048211</v>
-      </c>
-      <c r="D329" t="str">
-        <v>tamanho</v>
-      </c>
-      <c r="E329" t="str">
-        <v>1 UNIDADE</v>
-      </c>
-      <c r="F329" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="G329" t="str">
-        <v>LISO</v>
-      </c>
-      <c r="H329" t="str">
-        <v>350"</v>
-      </c>
-      <c r="I329" t="str">
-        <v>Laranja</v>
-      </c>
-      <c r="J329">
-        <v>10</v>
-      </c>
-      <c r="K329" t="str">
-        <v>07896968300848</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="str">
-        <v/>
-      </c>
-      <c r="B330" t="str">
-        <v>00000000004794</v>
-      </c>
-      <c r="C330" t="str">
-        <v>000000000048221</v>
-      </c>
-      <c r="D330" t="str">
-        <v>tamanho</v>
-      </c>
-      <c r="E330" t="str">
-        <v>1 UNIDADE</v>
-      </c>
-      <c r="F330" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="G330" t="str">
-        <v>LISO</v>
-      </c>
-      <c r="H330" t="str">
-        <v>350"</v>
-      </c>
-      <c r="I330" t="str">
-        <v>Azul</v>
-      </c>
-      <c r="J330">
-        <v>10</v>
-      </c>
-      <c r="K330" t="str">
-        <v>07896968300824</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="str">
-        <v/>
-      </c>
-      <c r="B331" t="str">
-        <v>00000000004804</v>
-      </c>
-      <c r="C331" t="str">
-        <v>000000000048231</v>
-      </c>
-      <c r="D331" t="str">
-        <v>tamanho</v>
-      </c>
-      <c r="E331" t="str">
-        <v>1 UNIDADE</v>
-      </c>
-      <c r="F331" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="G331" t="str">
-        <v>LISO</v>
-      </c>
-      <c r="H331" t="str">
-        <v>350"</v>
-      </c>
-      <c r="I331" t="str">
-        <v>Rosa Forte</v>
-      </c>
-      <c r="J331">
-        <v>10</v>
-      </c>
-      <c r="K331" t="str">
-        <v>07896968300855</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="str">
-        <v/>
-      </c>
-      <c r="B332" t="str">
-        <v>00000000004795</v>
-      </c>
-      <c r="C332" t="str">
-        <v>000000000048241</v>
-      </c>
-      <c r="D332" t="str">
-        <v>tamanho</v>
-      </c>
-      <c r="E332" t="str">
-        <v>1 UNIDADE</v>
-      </c>
-      <c r="F332" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="G332" t="str">
-        <v>LISO</v>
-      </c>
-      <c r="H332" t="str">
-        <v>350"</v>
-      </c>
-      <c r="I332" t="str">
-        <v>Lilás</v>
-      </c>
-      <c r="J332">
-        <v>10</v>
-      </c>
-      <c r="K332" t="str">
-        <v>07896968302040</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="str">
-        <v/>
-      </c>
-      <c r="B333" t="str">
-        <v>00000000004807</v>
-      </c>
-      <c r="C333" t="str">
-        <v>000000000048261</v>
-      </c>
-      <c r="D333" t="str">
-        <v>tamanho</v>
-      </c>
-      <c r="E333" t="str">
-        <v>1 UNIDADE</v>
-      </c>
-      <c r="F333" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="G333" t="str">
-        <v>LISO</v>
-      </c>
-      <c r="H333" t="str">
-        <v>350"</v>
-      </c>
-      <c r="I333" t="str">
-        <v>Verde</v>
-      </c>
-      <c r="J333">
-        <v>10</v>
-      </c>
-      <c r="K333" t="str">
         <v>07896968316337</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K333"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K328"/>
   </ignoredErrors>
 </worksheet>
 </file>